--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1763530.908875901</v>
+        <v>-1766216.481499756</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9503610.829619884</v>
+        <v>9503610.829619883</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.67338478619769</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8346437824979</v>
       </c>
       <c r="I11" t="n">
-        <v>42.43100206708752</v>
+        <v>42.43100206708748</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>109.6925843652644</v>
       </c>
       <c r="T11" t="n">
-        <v>204.0149470274405</v>
+        <v>204.0149470274404</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9969442378342</v>
+        <v>250.9969442378341</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>148.9113151541932</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>6.540679593956781</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0357455504794</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.6512618654794</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.37896942929819</v>
+        <v>89.37896942929815</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.9422052197322</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5914086123697</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.212380239692</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>93.12323017890546</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,10 +1622,10 @@
         <v>410.9438791401057</v>
       </c>
       <c r="H14" t="n">
-        <v>294.834643782498</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.43100206708752</v>
+        <v>23.03985374629596</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>109.6925843652644</v>
       </c>
       <c r="T14" t="n">
-        <v>204.0149470274405</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9969442378342</v>
+        <v>250.9969442378341</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>223.2039045082412</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0357455504794</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.8433664692232</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.6512618654794</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>89.37896942929817</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.9422052197322</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5914086123697</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.212380239692</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>3.883465345304572</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>159.592224625596</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>335.3092422136223</v>
       </c>
       <c r="C17" t="n">
-        <v>317.8482923211493</v>
+        <v>317.8482923211492</v>
       </c>
       <c r="D17" t="n">
         <v>307.2584421708247</v>
@@ -1901,7 +1901,7 @@
         <v>203.5723447879759</v>
       </c>
       <c r="V17" t="n">
-        <v>280.3276590202767</v>
+        <v>280.3276590202766</v>
       </c>
       <c r="W17" t="n">
         <v>301.8163692675547</v>
@@ -2081,7 +2081,7 @@
         <v>335.3092422136223</v>
       </c>
       <c r="C20" t="n">
-        <v>317.8482923211493</v>
+        <v>317.8482923211492</v>
       </c>
       <c r="D20" t="n">
         <v>307.2584421708247</v>
@@ -2138,10 +2138,10 @@
         <v>203.5723447879759</v>
       </c>
       <c r="V20" t="n">
-        <v>280.3276590202767</v>
+        <v>280.3276590202766</v>
       </c>
       <c r="W20" t="n">
-        <v>301.8163692675547</v>
+        <v>301.8163692675546</v>
       </c>
       <c r="X20" t="n">
         <v>322.3065012286107</v>
@@ -2318,7 +2318,7 @@
         <v>335.3092422136223</v>
       </c>
       <c r="C23" t="n">
-        <v>317.8482923211493</v>
+        <v>317.8482923211492</v>
       </c>
       <c r="D23" t="n">
         <v>307.2584421708247</v>
@@ -2375,7 +2375,7 @@
         <v>203.5723447879759</v>
       </c>
       <c r="V23" t="n">
-        <v>280.3276590202767</v>
+        <v>280.3276590202766</v>
       </c>
       <c r="W23" t="n">
         <v>301.8163692675547</v>
@@ -2476,25 +2476,25 @@
         <v>132.407380732079</v>
       </c>
       <c r="C25" t="n">
-        <v>119.8222216487696</v>
+        <v>119.8222216487695</v>
       </c>
       <c r="D25" t="n">
         <v>101.1908735683541</v>
       </c>
       <c r="E25" t="n">
-        <v>99.00936319671089</v>
+        <v>99.00936319671088</v>
       </c>
       <c r="F25" t="n">
-        <v>97.99644857307297</v>
+        <v>97.99644857307295</v>
       </c>
       <c r="G25" t="n">
         <v>118.6111461006211</v>
       </c>
       <c r="H25" t="n">
-        <v>97.41876701936492</v>
+        <v>97.41876701936491</v>
       </c>
       <c r="I25" t="n">
-        <v>49.22666241562111</v>
+        <v>49.2266624156211</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95436997943992</v>
+        <v>41.95436997943989</v>
       </c>
       <c r="S25" t="n">
         <v>142.5176057698739</v>
       </c>
       <c r="T25" t="n">
-        <v>172.1668091625115</v>
+        <v>172.1668091625114</v>
       </c>
       <c r="U25" t="n">
         <v>238.7877807898337</v>
@@ -2539,7 +2539,7 @@
         <v>239.0983988867327</v>
       </c>
       <c r="X25" t="n">
-        <v>178.2850559391789</v>
+        <v>178.2850559391788</v>
       </c>
       <c r="Y25" t="n">
         <v>171.1600539022365</v>
@@ -2555,7 +2555,7 @@
         <v>335.3092422136223</v>
       </c>
       <c r="C26" t="n">
-        <v>317.8482923211492</v>
+        <v>317.8482923211493</v>
       </c>
       <c r="D26" t="n">
         <v>307.2584421708247</v>
@@ -2564,13 +2564,13 @@
         <v>334.5057706224035</v>
       </c>
       <c r="F26" t="n">
-        <v>359.4514462918531</v>
+        <v>359.4514462918532</v>
       </c>
       <c r="G26" t="n">
-        <v>363.5192796902474</v>
+        <v>363.5192796902475</v>
       </c>
       <c r="H26" t="n">
-        <v>247.4100443326397</v>
+        <v>247.4100443326398</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.26798491540612</v>
+        <v>62.26798491540615</v>
       </c>
       <c r="T26" t="n">
         <v>156.5903475775822</v>
@@ -2612,13 +2612,13 @@
         <v>203.5723447879759</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3276590202766</v>
+        <v>280.3276590202767</v>
       </c>
       <c r="W26" t="n">
-        <v>301.8163692675547</v>
+        <v>301.8163692675548</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3065012286107</v>
+        <v>322.3065012286108</v>
       </c>
       <c r="Y26" t="n">
         <v>338.8133392061953</v>
@@ -2719,19 +2719,19 @@
         <v>101.1908735683541</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00936319671089</v>
+        <v>99.00936319671092</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99644857307297</v>
+        <v>97.996448573073</v>
       </c>
       <c r="G28" t="n">
-        <v>118.6111461006206</v>
+        <v>118.6111461006212</v>
       </c>
       <c r="H28" t="n">
-        <v>97.41876701936492</v>
+        <v>97.41876701936495</v>
       </c>
       <c r="I28" t="n">
-        <v>49.22666241562111</v>
+        <v>49.22666241562114</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95436997943992</v>
+        <v>41.95436997943995</v>
       </c>
       <c r="S28" t="n">
-        <v>142.5176057698739</v>
+        <v>142.517605769874</v>
       </c>
       <c r="T28" t="n">
         <v>172.1668091625115</v>
@@ -2770,10 +2770,10 @@
         <v>238.7877807898338</v>
       </c>
       <c r="V28" t="n">
-        <v>204.7130438739697</v>
+        <v>204.7130438739698</v>
       </c>
       <c r="W28" t="n">
-        <v>239.0983988867327</v>
+        <v>239.0983988867328</v>
       </c>
       <c r="X28" t="n">
         <v>178.2850559391789</v>
@@ -2792,7 +2792,7 @@
         <v>335.3092422136223</v>
       </c>
       <c r="C29" t="n">
-        <v>317.8482923211492</v>
+        <v>317.8482923211493</v>
       </c>
       <c r="D29" t="n">
         <v>307.2584421708247</v>
@@ -2801,13 +2801,13 @@
         <v>334.5057706224035</v>
       </c>
       <c r="F29" t="n">
-        <v>359.4514462918531</v>
+        <v>359.4514462918532</v>
       </c>
       <c r="G29" t="n">
-        <v>363.5192796902474</v>
+        <v>363.5192796902475</v>
       </c>
       <c r="H29" t="n">
-        <v>247.4100443326397</v>
+        <v>247.4100443326398</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.26798491540612</v>
+        <v>62.26798491540614</v>
       </c>
       <c r="T29" t="n">
         <v>156.5903475775822</v>
@@ -2849,13 +2849,13 @@
         <v>203.5723447879759</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3276590202766</v>
+        <v>280.3276590202767</v>
       </c>
       <c r="W29" t="n">
-        <v>301.8163692675547</v>
+        <v>301.8163692675548</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3065012286107</v>
+        <v>322.3065012286108</v>
       </c>
       <c r="Y29" t="n">
         <v>338.8133392061953</v>
@@ -2950,25 +2950,25 @@
         <v>132.407380732079</v>
       </c>
       <c r="C31" t="n">
-        <v>119.8222216487695</v>
+        <v>119.8222216487696</v>
       </c>
       <c r="D31" t="n">
         <v>101.1908735683541</v>
       </c>
       <c r="E31" t="n">
-        <v>99.00936319671088</v>
+        <v>99.00936319671092</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99644857307295</v>
+        <v>97.996448573073</v>
       </c>
       <c r="G31" t="n">
-        <v>118.6111461006211</v>
+        <v>118.6111461006212</v>
       </c>
       <c r="H31" t="n">
-        <v>97.41876701936491</v>
+        <v>97.41876701936496</v>
       </c>
       <c r="I31" t="n">
-        <v>49.2266624156211</v>
+        <v>49.22666241562015</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95436997943989</v>
+        <v>41.95436997943994</v>
       </c>
       <c r="S31" t="n">
-        <v>142.5176057698739</v>
+        <v>142.517605769874</v>
       </c>
       <c r="T31" t="n">
-        <v>172.1668091625114</v>
+        <v>172.1668091625115</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7877807898337</v>
+        <v>238.7877807898338</v>
       </c>
       <c r="V31" t="n">
-        <v>204.7130438739697</v>
+        <v>204.7130438739698</v>
       </c>
       <c r="W31" t="n">
-        <v>239.0983988867327</v>
+        <v>239.0983988867328</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2850559391788</v>
+        <v>178.2850559391789</v>
       </c>
       <c r="Y31" t="n">
         <v>171.1600539022365</v>
@@ -3029,7 +3029,7 @@
         <v>335.3092422136223</v>
       </c>
       <c r="C32" t="n">
-        <v>317.8482923211492</v>
+        <v>317.8482923211493</v>
       </c>
       <c r="D32" t="n">
         <v>307.2584421708247</v>
@@ -3041,7 +3041,7 @@
         <v>359.4514462918531</v>
       </c>
       <c r="G32" t="n">
-        <v>363.5192796902474</v>
+        <v>363.5192796902475</v>
       </c>
       <c r="H32" t="n">
         <v>247.4100443326397</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.26798491540609</v>
+        <v>62.26798491540612</v>
       </c>
       <c r="T32" t="n">
         <v>156.5903475775822</v>
@@ -3086,7 +3086,7 @@
         <v>203.5723447879759</v>
       </c>
       <c r="V32" t="n">
-        <v>280.3276590202766</v>
+        <v>280.3276590202767</v>
       </c>
       <c r="W32" t="n">
         <v>301.8163692675547</v>
@@ -3187,25 +3187,25 @@
         <v>132.407380732079</v>
       </c>
       <c r="C34" t="n">
-        <v>119.8222216487695</v>
+        <v>119.8222216487696</v>
       </c>
       <c r="D34" t="n">
-        <v>101.190873568354</v>
+        <v>101.1908735683541</v>
       </c>
       <c r="E34" t="n">
-        <v>99.00936319671086</v>
+        <v>99.00936319671089</v>
       </c>
       <c r="F34" t="n">
-        <v>97.99644857307294</v>
+        <v>97.99644857307297</v>
       </c>
       <c r="G34" t="n">
         <v>118.6111461006211</v>
       </c>
       <c r="H34" t="n">
-        <v>97.41876701936489</v>
+        <v>97.41876701936494</v>
       </c>
       <c r="I34" t="n">
-        <v>49.22666241562109</v>
+        <v>49.22666241562112</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95436997943989</v>
+        <v>41.95436997943992</v>
       </c>
       <c r="S34" t="n">
         <v>142.5176057698739</v>
       </c>
       <c r="T34" t="n">
-        <v>172.1668091625114</v>
+        <v>172.1668091625115</v>
       </c>
       <c r="U34" t="n">
-        <v>238.7877807898337</v>
+        <v>238.7877807898338</v>
       </c>
       <c r="V34" t="n">
         <v>204.7130438739697</v>
@@ -3250,7 +3250,7 @@
         <v>239.0983988867327</v>
       </c>
       <c r="X34" t="n">
-        <v>178.2850559391788</v>
+        <v>178.2850559391789</v>
       </c>
       <c r="Y34" t="n">
         <v>171.1600539022365</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2679849154061</v>
+        <v>62.26798491540612</v>
       </c>
       <c r="T35" t="n">
         <v>156.5903475775822</v>
@@ -3439,10 +3439,10 @@
         <v>118.6111461006211</v>
       </c>
       <c r="H37" t="n">
-        <v>97.41876701936492</v>
+        <v>97.41876701936491</v>
       </c>
       <c r="I37" t="n">
-        <v>49.22666241562111</v>
+        <v>49.2266624156211</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9543699794399</v>
+        <v>41.95436997943989</v>
       </c>
       <c r="S37" t="n">
         <v>142.5176057698739</v>
       </c>
       <c r="T37" t="n">
-        <v>172.1668091625115</v>
+        <v>172.1668091625114</v>
       </c>
       <c r="U37" t="n">
         <v>238.7877807898337</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.26798491540607</v>
+        <v>62.2679849154061</v>
       </c>
       <c r="T38" t="n">
-        <v>156.5903475775821</v>
+        <v>156.5903475775822</v>
       </c>
       <c r="U38" t="n">
-        <v>203.5723447879758</v>
+        <v>203.5723447879759</v>
       </c>
       <c r="V38" t="n">
         <v>280.3276590202766</v>
@@ -3664,22 +3664,22 @@
         <v>119.8222216487695</v>
       </c>
       <c r="D40" t="n">
-        <v>101.190873568354</v>
+        <v>101.1908735683541</v>
       </c>
       <c r="E40" t="n">
-        <v>99.00936319671084</v>
+        <v>99.00936319671088</v>
       </c>
       <c r="F40" t="n">
-        <v>97.99644857307291</v>
+        <v>97.99644857307295</v>
       </c>
       <c r="G40" t="n">
         <v>118.6111461006211</v>
       </c>
       <c r="H40" t="n">
-        <v>97.41876701936488</v>
+        <v>97.41876701936491</v>
       </c>
       <c r="I40" t="n">
-        <v>49.22666241562107</v>
+        <v>49.2266624156211</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95436997943987</v>
+        <v>41.95436997943989</v>
       </c>
       <c r="S40" t="n">
         <v>142.5176057698739</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.26798491540612</v>
+        <v>62.2679849154061</v>
       </c>
       <c r="T41" t="n">
         <v>156.5903475775822</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.26798491540609</v>
+        <v>62.2679849154061</v>
       </c>
       <c r="T44" t="n">
         <v>156.5903475775822</v>
@@ -4138,22 +4138,22 @@
         <v>119.8222216487695</v>
       </c>
       <c r="D46" t="n">
-        <v>101.190873568354</v>
+        <v>101.1908735683541</v>
       </c>
       <c r="E46" t="n">
-        <v>99.00936319671086</v>
+        <v>99.00936319671088</v>
       </c>
       <c r="F46" t="n">
-        <v>97.99644857307294</v>
+        <v>97.99644857307295</v>
       </c>
       <c r="G46" t="n">
         <v>118.6111461006211</v>
       </c>
       <c r="H46" t="n">
-        <v>97.41876701936489</v>
+        <v>97.41876701936491</v>
       </c>
       <c r="I46" t="n">
-        <v>49.22666241562109</v>
+        <v>49.2266624156211</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1632.833843577001</v>
+        <v>1133.872457686622</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.871326636589</v>
+        <v>764.9099407462102</v>
       </c>
       <c r="D11" t="n">
-        <v>905.605628029839</v>
+        <v>406.6442421394597</v>
       </c>
       <c r="E11" t="n">
-        <v>519.8173754315947</v>
+        <v>406.6442421394597</v>
       </c>
       <c r="F11" t="n">
-        <v>108.8314706419871</v>
+        <v>406.6442421394597</v>
       </c>
       <c r="G11" t="n">
-        <v>108.8314706419871</v>
+        <v>406.6442421394597</v>
       </c>
       <c r="H11" t="n">
         <v>108.8314706419871</v>
       </c>
       <c r="I11" t="n">
-        <v>65.97187259442394</v>
+        <v>65.97187259442396</v>
       </c>
       <c r="J11" t="n">
-        <v>252.989556560573</v>
+        <v>252.9895565605739</v>
       </c>
       <c r="K11" t="n">
-        <v>584.0191037384532</v>
+        <v>584.0191037384552</v>
       </c>
       <c r="L11" t="n">
-        <v>1031.592290505433</v>
+        <v>1031.592290505435</v>
       </c>
       <c r="M11" t="n">
-        <v>1561.273136348359</v>
+        <v>1561.273136348361</v>
       </c>
       <c r="N11" t="n">
-        <v>2104.13858042013</v>
+        <v>2104.138580420133</v>
       </c>
       <c r="O11" t="n">
-        <v>2603.415764158027</v>
+        <v>2603.415764158029</v>
       </c>
       <c r="P11" t="n">
-        <v>2995.036288433476</v>
+        <v>2995.036288433477</v>
       </c>
       <c r="Q11" t="n">
         <v>3240.954246130756</v>
@@ -5066,25 +5066,25 @@
         <v>3298.593629721197</v>
       </c>
       <c r="S11" t="n">
-        <v>3187.793039453253</v>
+        <v>3187.793039453254</v>
       </c>
       <c r="T11" t="n">
-        <v>2981.717335385131</v>
+        <v>2981.717335385132</v>
       </c>
       <c r="U11" t="n">
-        <v>2728.185068478228</v>
+        <v>2728.185068478229</v>
       </c>
       <c r="V11" t="n">
-        <v>2397.122181134658</v>
+        <v>2397.122181134659</v>
       </c>
       <c r="W11" t="n">
         <v>2044.353525864544</v>
       </c>
       <c r="X11" t="n">
-        <v>1670.887767603463</v>
+        <v>1670.887767603464</v>
       </c>
       <c r="Y11" t="n">
-        <v>1670.887767603463</v>
+        <v>1520.472297750744</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5112,22 @@
         <v>165.7808885116352</v>
       </c>
       <c r="H12" t="n">
-        <v>75.16336124565233</v>
+        <v>75.16336124565234</v>
       </c>
       <c r="I12" t="n">
-        <v>65.97187259442394</v>
+        <v>65.97187259442396</v>
       </c>
       <c r="J12" t="n">
         <v>158.5404770082732</v>
       </c>
       <c r="K12" t="n">
-        <v>403.4560853099655</v>
+        <v>394.9097907868484</v>
       </c>
       <c r="L12" t="n">
-        <v>767.6063386254904</v>
+        <v>759.0600441023732</v>
       </c>
       <c r="M12" t="n">
-        <v>1211.909376559152</v>
+        <v>1203.363082036035</v>
       </c>
       <c r="N12" t="n">
         <v>1682.380438757715</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.5406103083843</v>
+        <v>170.2061568968847</v>
       </c>
       <c r="C13" t="n">
-        <v>678.6044273804767</v>
+        <v>163.5994098322819</v>
       </c>
       <c r="D13" t="n">
-        <v>528.487787968141</v>
+        <v>163.5994098322819</v>
       </c>
       <c r="E13" t="n">
-        <v>380.5746943857479</v>
+        <v>163.5994098322819</v>
       </c>
       <c r="F13" t="n">
-        <v>233.6847468878375</v>
+        <v>163.5994098322819</v>
       </c>
       <c r="G13" t="n">
-        <v>65.97187259442394</v>
+        <v>163.5994098322819</v>
       </c>
       <c r="H13" t="n">
-        <v>65.97187259442394</v>
+        <v>163.5994098322819</v>
       </c>
       <c r="I13" t="n">
-        <v>65.97187259442394</v>
+        <v>65.97187259442396</v>
       </c>
       <c r="J13" t="n">
-        <v>110.3989642008162</v>
+        <v>110.3989642008163</v>
       </c>
       <c r="K13" t="n">
-        <v>313.2431598869766</v>
+        <v>313.2431598869762</v>
       </c>
       <c r="L13" t="n">
-        <v>628.3403281559376</v>
+        <v>628.3403281559372</v>
       </c>
       <c r="M13" t="n">
-        <v>970.9552353070505</v>
+        <v>970.9552353070502</v>
       </c>
       <c r="N13" t="n">
         <v>1310.858142169934</v>
@@ -5221,28 +5221,28 @@
         <v>1917.001349555961</v>
       </c>
       <c r="R13" t="n">
-        <v>1826.71956225364</v>
+        <v>1826.719562253639</v>
       </c>
       <c r="S13" t="n">
-        <v>1826.71956225364</v>
+        <v>1634.858748900375</v>
       </c>
       <c r="T13" t="n">
-        <v>1826.71956225364</v>
+        <v>1413.049245251516</v>
       </c>
       <c r="U13" t="n">
-        <v>1826.71956225364</v>
+        <v>1123.945830867989</v>
       </c>
       <c r="V13" t="n">
-        <v>1572.035074047753</v>
+        <v>869.2613426621023</v>
       </c>
       <c r="W13" t="n">
-        <v>1477.971205180171</v>
+        <v>579.8441726251417</v>
       </c>
       <c r="X13" t="n">
-        <v>1249.981654282154</v>
+        <v>351.8546217271245</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.189075138624</v>
+        <v>351.8546217271245</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1630.698011951972</v>
+        <v>2040.526437495809</v>
       </c>
       <c r="C14" t="n">
-        <v>1630.698011951972</v>
+        <v>1671.563920555398</v>
       </c>
       <c r="D14" t="n">
-        <v>1630.698011951972</v>
+        <v>1313.298221948647</v>
       </c>
       <c r="E14" t="n">
-        <v>1244.909759353728</v>
+        <v>927.5099693504035</v>
       </c>
       <c r="F14" t="n">
-        <v>833.9238545641201</v>
+        <v>516.524064560796</v>
       </c>
       <c r="G14" t="n">
-        <v>418.8290271498718</v>
+        <v>101.4292371465488</v>
       </c>
       <c r="H14" t="n">
-        <v>121.0162556523989</v>
+        <v>101.4292371465488</v>
       </c>
       <c r="I14" t="n">
-        <v>78.15665760483577</v>
+        <v>78.15665760483569</v>
       </c>
       <c r="J14" t="n">
-        <v>265.1743415709858</v>
+        <v>265.1743415709857</v>
       </c>
       <c r="K14" t="n">
-        <v>596.2038887488662</v>
+        <v>596.2038887488661</v>
       </c>
       <c r="L14" t="n">
-        <v>1043.777075515846</v>
+        <v>1457.261677920792</v>
       </c>
       <c r="M14" t="n">
-        <v>1786.872410104931</v>
+        <v>1986.942523763717</v>
       </c>
       <c r="N14" t="n">
-        <v>2329.737854176703</v>
+        <v>2529.80796783549</v>
       </c>
       <c r="O14" t="n">
-        <v>2829.0150379146</v>
+        <v>3029.085151573386</v>
       </c>
       <c r="P14" t="n">
-        <v>3539.216283279816</v>
+        <v>3420.705675848834</v>
       </c>
       <c r="Q14" t="n">
-        <v>3785.134240977095</v>
+        <v>3850.193496651343</v>
       </c>
       <c r="R14" t="n">
-        <v>3907.832880241789</v>
+        <v>3907.832880241784</v>
       </c>
       <c r="S14" t="n">
-        <v>3797.032289973845</v>
+        <v>3797.03228997384</v>
       </c>
       <c r="T14" t="n">
-        <v>3590.956585905723</v>
+        <v>3797.03228997384</v>
       </c>
       <c r="U14" t="n">
-        <v>3337.42431899882</v>
+        <v>3543.500023066937</v>
       </c>
       <c r="V14" t="n">
-        <v>3006.361431655249</v>
+        <v>3543.500023066937</v>
       </c>
       <c r="W14" t="n">
-        <v>2780.902942252985</v>
+        <v>3190.731367796823</v>
       </c>
       <c r="X14" t="n">
-        <v>2407.437183991905</v>
+        <v>2817.265609535743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2017.297852016094</v>
+        <v>2427.126277559931</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.5001984996048</v>
+        <v>943.5001984996046</v>
       </c>
       <c r="C15" t="n">
-        <v>769.0471692184778</v>
+        <v>769.0471692184776</v>
       </c>
       <c r="D15" t="n">
-        <v>620.1127595572266</v>
+        <v>620.1127595572264</v>
       </c>
       <c r="E15" t="n">
-        <v>460.875304551771</v>
+        <v>460.8753045517709</v>
       </c>
       <c r="F15" t="n">
-        <v>314.340746578656</v>
+        <v>314.3407465786559</v>
       </c>
       <c r="G15" t="n">
         <v>177.965673522047</v>
       </c>
       <c r="H15" t="n">
-        <v>87.34814625606415</v>
+        <v>87.34814625606407</v>
       </c>
       <c r="I15" t="n">
-        <v>78.15665760483577</v>
+        <v>78.15665760483569</v>
       </c>
       <c r="J15" t="n">
-        <v>170.725262018685</v>
+        <v>170.7252620186849</v>
       </c>
       <c r="K15" t="n">
-        <v>407.0945757972602</v>
+        <v>407.0945757972601</v>
       </c>
       <c r="L15" t="n">
-        <v>771.2448291127851</v>
+        <v>771.2448291127849</v>
       </c>
       <c r="M15" t="n">
         <v>1215.547867046447</v>
@@ -5370,7 +5370,7 @@
         <v>1686.01892924501</v>
       </c>
       <c r="O15" t="n">
-        <v>2094.188241975379</v>
+        <v>2102.734536498496</v>
       </c>
       <c r="P15" t="n">
         <v>2410.9933285636</v>
@@ -5394,10 +5394,10 @@
         <v>1781.564691218361</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.32733449016</v>
+        <v>1527.327334490159</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.475834284627</v>
+        <v>1319.475834284626</v>
       </c>
       <c r="Y15" t="n">
         <v>1111.715535519673</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1103.659363333647</v>
+        <v>247.0928405327426</v>
       </c>
       <c r="C16" t="n">
-        <v>934.7231804057398</v>
+        <v>78.15665760483569</v>
       </c>
       <c r="D16" t="n">
-        <v>784.6065409934039</v>
+        <v>78.15665760483569</v>
       </c>
       <c r="E16" t="n">
-        <v>636.6934474110108</v>
+        <v>78.15665760483569</v>
       </c>
       <c r="F16" t="n">
-        <v>489.8034999131004</v>
+        <v>78.15665760483569</v>
       </c>
       <c r="G16" t="n">
-        <v>322.0906256196869</v>
+        <v>78.15665760483569</v>
       </c>
       <c r="H16" t="n">
-        <v>175.7841948426938</v>
+        <v>78.15665760483569</v>
       </c>
       <c r="I16" t="n">
-        <v>78.15665760483577</v>
+        <v>78.15665760483569</v>
       </c>
       <c r="J16" t="n">
-        <v>122.5837492112281</v>
+        <v>122.5837492112277</v>
       </c>
       <c r="K16" t="n">
-        <v>325.4279448973883</v>
+        <v>325.427944897388</v>
       </c>
       <c r="L16" t="n">
-        <v>640.5251131663493</v>
+        <v>640.5251131663491</v>
       </c>
       <c r="M16" t="n">
         <v>983.1400203174621</v>
       </c>
       <c r="N16" t="n">
-        <v>1323.042927180345</v>
+        <v>1323.042927180346</v>
       </c>
       <c r="O16" t="n">
         <v>1620.981981033411</v>
@@ -5455,31 +5455,31 @@
         <v>1852.39962993787</v>
       </c>
       <c r="Q16" t="n">
-        <v>1929.186134566372</v>
+        <v>1929.186134566373</v>
       </c>
       <c r="R16" t="n">
-        <v>1929.186134566372</v>
+        <v>1838.904347264051</v>
       </c>
       <c r="S16" t="n">
-        <v>1929.186134566372</v>
+        <v>1647.043533910786</v>
       </c>
       <c r="T16" t="n">
-        <v>1929.186134566372</v>
+        <v>1425.234030261928</v>
       </c>
       <c r="U16" t="n">
-        <v>1929.186134566372</v>
+        <v>1136.130615878401</v>
       </c>
       <c r="V16" t="n">
-        <v>1674.501646360485</v>
+        <v>881.4461276725141</v>
       </c>
       <c r="W16" t="n">
-        <v>1674.501646360485</v>
+        <v>877.5234354045297</v>
       </c>
       <c r="X16" t="n">
-        <v>1446.512095462468</v>
+        <v>649.5338845065124</v>
       </c>
       <c r="Y16" t="n">
-        <v>1285.307828163886</v>
+        <v>428.7413053629823</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2030.522934645911</v>
+        <v>2030.52293464591</v>
       </c>
       <c r="C17" t="n">
-        <v>1709.464053513437</v>
+        <v>1709.464053513436</v>
       </c>
       <c r="D17" t="n">
-        <v>1399.101990714624</v>
+        <v>1399.101990714623</v>
       </c>
       <c r="E17" t="n">
-        <v>1061.217373924318</v>
+        <v>1061.217373924316</v>
       </c>
       <c r="F17" t="n">
-        <v>698.1351049426476</v>
+        <v>698.1351049426464</v>
       </c>
       <c r="G17" t="n">
-        <v>330.9439133363367</v>
+        <v>330.9439133363366</v>
       </c>
       <c r="H17" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="I17" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="J17" t="n">
-        <v>268.0524616129516</v>
+        <v>435.4581106333046</v>
       </c>
       <c r="K17" t="n">
-        <v>599.082008790832</v>
+        <v>766.487657811185</v>
       </c>
       <c r="L17" t="n">
-        <v>1339.719144966409</v>
+        <v>1214.060844578165</v>
       </c>
       <c r="M17" t="n">
-        <v>2314.418388967239</v>
+        <v>2188.760088578994</v>
       </c>
       <c r="N17" t="n">
-        <v>2857.283833039011</v>
+        <v>2731.625532650767</v>
       </c>
       <c r="O17" t="n">
         <v>3356.561016776907</v>
@@ -5534,31 +5534,31 @@
         <v>3748.181541052355</v>
       </c>
       <c r="Q17" t="n">
-        <v>3994.099498749635</v>
+        <v>3994.099498749634</v>
       </c>
       <c r="R17" t="n">
         <v>4051.738882340076</v>
       </c>
       <c r="S17" t="n">
-        <v>3988.84192788007</v>
+        <v>3988.841927880069</v>
       </c>
       <c r="T17" t="n">
-        <v>3830.669859619886</v>
+        <v>3830.669859619885</v>
       </c>
       <c r="U17" t="n">
-        <v>3625.041228520921</v>
+        <v>3625.04122852092</v>
       </c>
       <c r="V17" t="n">
-        <v>3341.881976985288</v>
+        <v>3341.881976985287</v>
       </c>
       <c r="W17" t="n">
-        <v>3037.016957523112</v>
+        <v>3037.01695752311</v>
       </c>
       <c r="X17" t="n">
-        <v>2711.45483506997</v>
+        <v>2711.454835069968</v>
       </c>
       <c r="Y17" t="n">
-        <v>2369.219138902095</v>
+        <v>2369.219138902094</v>
       </c>
     </row>
     <row r="18">
@@ -5586,22 +5586,22 @@
         <v>180.8437935640128</v>
       </c>
       <c r="H18" t="n">
-        <v>90.22626629802991</v>
+        <v>90.2262662980299</v>
       </c>
       <c r="I18" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="J18" t="n">
-        <v>182.1496765837679</v>
+        <v>173.6033820606507</v>
       </c>
       <c r="K18" t="n">
-        <v>418.5189903623431</v>
+        <v>409.9726958392259</v>
       </c>
       <c r="L18" t="n">
-        <v>782.6692436778679</v>
+        <v>774.1229491547508</v>
       </c>
       <c r="M18" t="n">
-        <v>1226.97228161153</v>
+        <v>1218.425987088413</v>
       </c>
       <c r="N18" t="n">
         <v>1697.443343810093</v>
@@ -5668,16 +5668,16 @@
         <v>130.7586790767218</v>
       </c>
       <c r="I19" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="J19" t="n">
-        <v>172.4122227085535</v>
+        <v>172.4122227085538</v>
       </c>
       <c r="K19" t="n">
-        <v>422.2067718500735</v>
+        <v>422.2067718500738</v>
       </c>
       <c r="L19" t="n">
-        <v>784.2542935743943</v>
+        <v>784.2542935743945</v>
       </c>
       <c r="M19" t="n">
         <v>1173.819554180867</v>
@@ -5738,49 +5738,49 @@
         <v>1061.217373924317</v>
       </c>
       <c r="F20" t="n">
-        <v>698.135104942647</v>
+        <v>698.1351049426466</v>
       </c>
       <c r="G20" t="n">
-        <v>330.9439133363367</v>
+        <v>330.9439133363366</v>
       </c>
       <c r="H20" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="I20" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="J20" t="n">
-        <v>409.9797543064419</v>
+        <v>435.4581106333046</v>
       </c>
       <c r="K20" t="n">
-        <v>1061.913259929775</v>
+        <v>766.487657811185</v>
       </c>
       <c r="L20" t="n">
-        <v>1509.486446696755</v>
+        <v>1627.545446983111</v>
       </c>
       <c r="M20" t="n">
-        <v>2039.167292539681</v>
+        <v>2157.226292826036</v>
       </c>
       <c r="N20" t="n">
-        <v>2582.032736611453</v>
+        <v>2857.28383303901</v>
       </c>
       <c r="O20" t="n">
-        <v>3081.309920349349</v>
+        <v>3356.561016776907</v>
       </c>
       <c r="P20" t="n">
-        <v>3472.930444624797</v>
+        <v>3748.181541052355</v>
       </c>
       <c r="Q20" t="n">
-        <v>3929.040243075382</v>
+        <v>3994.099498749634</v>
       </c>
       <c r="R20" t="n">
         <v>4051.738882340076</v>
       </c>
       <c r="S20" t="n">
-        <v>3988.84192788007</v>
+        <v>3988.841927880069</v>
       </c>
       <c r="T20" t="n">
-        <v>3830.669859619886</v>
+        <v>3830.669859619885</v>
       </c>
       <c r="U20" t="n">
         <v>3625.04122852092</v>
@@ -5823,31 +5823,31 @@
         <v>180.8437935640128</v>
       </c>
       <c r="H21" t="n">
-        <v>90.22626629802991</v>
+        <v>90.2262662980299</v>
       </c>
       <c r="I21" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="J21" t="n">
-        <v>173.6033820606508</v>
+        <v>173.6033820606507</v>
       </c>
       <c r="K21" t="n">
         <v>409.9726958392259</v>
       </c>
       <c r="L21" t="n">
-        <v>782.6692436778679</v>
+        <v>774.1229491547508</v>
       </c>
       <c r="M21" t="n">
-        <v>1226.97228161153</v>
+        <v>1218.425987088413</v>
       </c>
       <c r="N21" t="n">
-        <v>1697.443343810093</v>
+        <v>1688.897049286976</v>
       </c>
       <c r="O21" t="n">
-        <v>2105.612656540462</v>
+        <v>2097.066362017345</v>
       </c>
       <c r="P21" t="n">
-        <v>2413.871448605566</v>
+        <v>2405.325154082449</v>
       </c>
       <c r="Q21" t="n">
         <v>2570.015091188136</v>
@@ -5905,22 +5905,22 @@
         <v>130.7586790767218</v>
       </c>
       <c r="I22" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="J22" t="n">
         <v>172.4122227085535</v>
       </c>
       <c r="K22" t="n">
-        <v>422.2067718500735</v>
+        <v>422.2067718500734</v>
       </c>
       <c r="L22" t="n">
-        <v>784.2542935743943</v>
+        <v>784.2542935743942</v>
       </c>
       <c r="M22" t="n">
         <v>1173.819554180867</v>
       </c>
       <c r="N22" t="n">
-        <v>1560.672814499111</v>
+        <v>1560.67281449911</v>
       </c>
       <c r="O22" t="n">
         <v>1905.562221807535</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2030.522934645911</v>
+        <v>2030.52293464591</v>
       </c>
       <c r="C23" t="n">
         <v>1709.464053513437</v>
@@ -5975,10 +5975,10 @@
         <v>1061.217373924317</v>
       </c>
       <c r="F23" t="n">
-        <v>698.1351049426471</v>
+        <v>698.1351049426476</v>
       </c>
       <c r="G23" t="n">
-        <v>330.9439133363367</v>
+        <v>330.9439133363366</v>
       </c>
       <c r="H23" t="n">
         <v>81.03477764680153</v>
@@ -5993,22 +5993,22 @@
         <v>599.082008790832</v>
       </c>
       <c r="L23" t="n">
-        <v>1339.719144966409</v>
+        <v>1046.655195557812</v>
       </c>
       <c r="M23" t="n">
-        <v>2314.418388967239</v>
+        <v>1576.336041400737</v>
       </c>
       <c r="N23" t="n">
-        <v>2857.283833039011</v>
+        <v>2473.643856274991</v>
       </c>
       <c r="O23" t="n">
-        <v>3356.561016776907</v>
+        <v>2972.921040012887</v>
       </c>
       <c r="P23" t="n">
-        <v>3748.181541052355</v>
+        <v>3683.122285378103</v>
       </c>
       <c r="Q23" t="n">
-        <v>3994.099498749635</v>
+        <v>3929.040243075382</v>
       </c>
       <c r="R23" t="n">
         <v>4051.738882340076</v>
@@ -6020,10 +6020,10 @@
         <v>3830.669859619886</v>
       </c>
       <c r="U23" t="n">
-        <v>3625.041228520921</v>
+        <v>3625.04122852092</v>
       </c>
       <c r="V23" t="n">
-        <v>3341.881976985288</v>
+        <v>3341.881976985287</v>
       </c>
       <c r="W23" t="n">
         <v>3037.016957523111</v>
@@ -6069,13 +6069,13 @@
         <v>173.6033820606508</v>
       </c>
       <c r="K24" t="n">
-        <v>418.5189903623431</v>
+        <v>409.9726958392259</v>
       </c>
       <c r="L24" t="n">
-        <v>782.6692436778679</v>
+        <v>774.1229491547508</v>
       </c>
       <c r="M24" t="n">
-        <v>1226.97228161153</v>
+        <v>1218.425987088413</v>
       </c>
       <c r="N24" t="n">
         <v>1697.443343810093</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>771.2120327200487</v>
+        <v>771.2120327200486</v>
       </c>
       <c r="C25" t="n">
         <v>650.1794856000794</v>
@@ -6145,19 +6145,19 @@
         <v>81.03477764680153</v>
       </c>
       <c r="J25" t="n">
-        <v>172.4122227085543</v>
+        <v>172.4122227085535</v>
       </c>
       <c r="K25" t="n">
-        <v>422.2067718500742</v>
+        <v>422.2067718500733</v>
       </c>
       <c r="L25" t="n">
-        <v>784.254293574395</v>
+        <v>784.2542935743941</v>
       </c>
       <c r="M25" t="n">
         <v>1173.819554180867</v>
       </c>
       <c r="N25" t="n">
-        <v>1560.672814499111</v>
+        <v>1560.67281449911</v>
       </c>
       <c r="O25" t="n">
         <v>1905.562221807535</v>
@@ -6190,7 +6190,7 @@
         <v>1077.845805077943</v>
       </c>
       <c r="Y25" t="n">
-        <v>904.9568617423507</v>
+        <v>904.9568617423506</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2030.522934645911</v>
+        <v>2030.52293464591</v>
       </c>
       <c r="C26" t="n">
         <v>1709.464053513437</v>
@@ -6209,61 +6209,61 @@
         <v>1399.101990714624</v>
       </c>
       <c r="E26" t="n">
-        <v>1061.217373924318</v>
+        <v>1061.217373924317</v>
       </c>
       <c r="F26" t="n">
-        <v>698.1351049426477</v>
+        <v>698.1351049426471</v>
       </c>
       <c r="G26" t="n">
         <v>330.9439133363367</v>
       </c>
       <c r="H26" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="I26" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J26" t="n">
         <v>268.0524616129516</v>
       </c>
       <c r="K26" t="n">
-        <v>839.1316455152178</v>
+        <v>599.082008790832</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.704832282197</v>
+        <v>1046.655195557812</v>
       </c>
       <c r="M26" t="n">
-        <v>1816.385678125123</v>
+        <v>1576.336041400737</v>
       </c>
       <c r="N26" t="n">
-        <v>2792.22457736476</v>
+        <v>2161.710932499125</v>
       </c>
       <c r="O26" t="n">
-        <v>3291.501761102656</v>
+        <v>3037.980295687139</v>
       </c>
       <c r="P26" t="n">
-        <v>3683.122285378104</v>
+        <v>3748.181541052355</v>
       </c>
       <c r="Q26" t="n">
-        <v>3929.040243075383</v>
+        <v>3994.099498749635</v>
       </c>
       <c r="R26" t="n">
-        <v>4051.738882340077</v>
+        <v>4051.738882340076</v>
       </c>
       <c r="S26" t="n">
-        <v>3988.841927880071</v>
+        <v>3988.84192788007</v>
       </c>
       <c r="T26" t="n">
-        <v>3830.669859619887</v>
+        <v>3830.669859619886</v>
       </c>
       <c r="U26" t="n">
-        <v>3625.041228520921</v>
+        <v>3625.04122852092</v>
       </c>
       <c r="V26" t="n">
-        <v>3341.881976985288</v>
+        <v>3341.881976985287</v>
       </c>
       <c r="W26" t="n">
-        <v>3037.016957523112</v>
+        <v>3037.016957523111</v>
       </c>
       <c r="X26" t="n">
         <v>2711.454835069969</v>
@@ -6297,10 +6297,10 @@
         <v>180.8437935640128</v>
       </c>
       <c r="H27" t="n">
-        <v>90.22626629802993</v>
+        <v>90.22626629802991</v>
       </c>
       <c r="I27" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J27" t="n">
         <v>173.6033820606508</v>
@@ -6309,22 +6309,22 @@
         <v>409.9726958392259</v>
       </c>
       <c r="L27" t="n">
-        <v>782.6692436778679</v>
+        <v>774.1229491547508</v>
       </c>
       <c r="M27" t="n">
-        <v>1226.97228161153</v>
+        <v>1218.425987088413</v>
       </c>
       <c r="N27" t="n">
-        <v>1697.443343810093</v>
+        <v>1688.897049286976</v>
       </c>
       <c r="O27" t="n">
-        <v>2105.612656540462</v>
+        <v>2097.066362017345</v>
       </c>
       <c r="P27" t="n">
-        <v>2413.871448605566</v>
+        <v>2405.325154082449</v>
       </c>
       <c r="Q27" t="n">
-        <v>2570.015091188136</v>
+        <v>2561.468796665019</v>
       </c>
       <c r="R27" t="n">
         <v>2570.015091188136</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>771.2120327200482</v>
+        <v>771.2120327200485</v>
       </c>
       <c r="C28" t="n">
-        <v>650.1794856000789</v>
+        <v>650.1794856000791</v>
       </c>
       <c r="D28" t="n">
-        <v>547.9664819956809</v>
+        <v>547.9664819956811</v>
       </c>
       <c r="E28" t="n">
-        <v>447.9570242212254</v>
+        <v>447.9570242212255</v>
       </c>
       <c r="F28" t="n">
-        <v>348.9707125312527</v>
+        <v>348.9707125312528</v>
       </c>
       <c r="G28" t="n">
-        <v>229.1614740457773</v>
+        <v>229.1614740457769</v>
       </c>
       <c r="H28" t="n">
-        <v>130.7586790767218</v>
+        <v>130.7586790767214</v>
       </c>
       <c r="I28" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J28" t="n">
-        <v>172.4122227085537</v>
+        <v>172.4122227085536</v>
       </c>
       <c r="K28" t="n">
-        <v>422.2067718500737</v>
+        <v>422.2067718500736</v>
       </c>
       <c r="L28" t="n">
-        <v>784.2542935743944</v>
+        <v>784.2542935743943</v>
       </c>
       <c r="M28" t="n">
         <v>1173.819554180867</v>
@@ -6412,7 +6412,7 @@
         <v>2121.331753211505</v>
       </c>
       <c r="T28" t="n">
-        <v>1947.425885370585</v>
+        <v>1947.425885370584</v>
       </c>
       <c r="U28" t="n">
         <v>1706.226106794995</v>
@@ -6427,7 +6427,7 @@
         <v>1077.845805077943</v>
       </c>
       <c r="Y28" t="n">
-        <v>904.9568617423503</v>
+        <v>904.9568617423505</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2030.522934645911</v>
+        <v>2030.52293464591</v>
       </c>
       <c r="C29" t="n">
         <v>1709.464053513437</v>
       </c>
       <c r="D29" t="n">
-        <v>1399.101990714625</v>
+        <v>1399.101990714624</v>
       </c>
       <c r="E29" t="n">
-        <v>1061.217373924318</v>
+        <v>1061.217373924317</v>
       </c>
       <c r="F29" t="n">
-        <v>698.1351049426482</v>
+        <v>698.1351049426471</v>
       </c>
       <c r="G29" t="n">
-        <v>330.9439133363366</v>
+        <v>330.9439133363367</v>
       </c>
       <c r="H29" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="I29" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J29" t="n">
         <v>268.0524616129516</v>
       </c>
       <c r="K29" t="n">
-        <v>599.082008790832</v>
+        <v>919.9859672362851</v>
       </c>
       <c r="L29" t="n">
-        <v>1046.655195557812</v>
+        <v>1367.559154003265</v>
       </c>
       <c r="M29" t="n">
-        <v>2021.354439558641</v>
+        <v>2314.418388967239</v>
       </c>
       <c r="N29" t="n">
-        <v>2564.219883630414</v>
+        <v>2857.283833039011</v>
       </c>
       <c r="O29" t="n">
-        <v>3291.501761102656</v>
+        <v>3356.561016776907</v>
       </c>
       <c r="P29" t="n">
-        <v>3683.122285378104</v>
+        <v>3748.181541052355</v>
       </c>
       <c r="Q29" t="n">
-        <v>3929.040243075383</v>
+        <v>3994.099498749635</v>
       </c>
       <c r="R29" t="n">
-        <v>4051.738882340077</v>
+        <v>4051.738882340076</v>
       </c>
       <c r="S29" t="n">
         <v>3988.84192788007</v>
@@ -6494,13 +6494,13 @@
         <v>3830.669859619886</v>
       </c>
       <c r="U29" t="n">
-        <v>3625.041228520921</v>
+        <v>3625.04122852092</v>
       </c>
       <c r="V29" t="n">
-        <v>3341.881976985288</v>
+        <v>3341.881976985287</v>
       </c>
       <c r="W29" t="n">
-        <v>3037.016957523112</v>
+        <v>3037.016957523111</v>
       </c>
       <c r="X29" t="n">
         <v>2711.454835069969</v>
@@ -6534,10 +6534,10 @@
         <v>180.8437935640128</v>
       </c>
       <c r="H30" t="n">
-        <v>90.22626629802993</v>
+        <v>90.22626629802991</v>
       </c>
       <c r="I30" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J30" t="n">
         <v>173.6033820606508</v>
@@ -6552,7 +6552,7 @@
         <v>1218.425987088413</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.443343810093</v>
+        <v>1688.897049286976</v>
       </c>
       <c r="O30" t="n">
         <v>2105.612656540462</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>771.2120327200487</v>
+        <v>771.2120327200475</v>
       </c>
       <c r="C31" t="n">
-        <v>650.1794856000795</v>
+        <v>650.1794856000782</v>
       </c>
       <c r="D31" t="n">
-        <v>547.9664819956814</v>
+        <v>547.9664819956802</v>
       </c>
       <c r="E31" t="n">
-        <v>447.9570242212259</v>
+        <v>447.9570242212246</v>
       </c>
       <c r="F31" t="n">
-        <v>348.9707125312532</v>
+        <v>348.9707125312519</v>
       </c>
       <c r="G31" t="n">
-        <v>229.1614740457774</v>
+        <v>229.161474045776</v>
       </c>
       <c r="H31" t="n">
-        <v>130.7586790767218</v>
+        <v>130.7586790767209</v>
       </c>
       <c r="I31" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J31" t="n">
         <v>172.4122227085535</v>
       </c>
       <c r="K31" t="n">
-        <v>422.2067718500736</v>
+        <v>422.2067718500734</v>
       </c>
       <c r="L31" t="n">
-        <v>784.2542935743943</v>
+        <v>784.2542935743941</v>
       </c>
       <c r="M31" t="n">
         <v>1173.819554180867</v>
@@ -6643,28 +6643,28 @@
         <v>2307.667082251216</v>
       </c>
       <c r="R31" t="n">
-        <v>2265.288930756833</v>
+        <v>2265.288930756832</v>
       </c>
       <c r="S31" t="n">
-        <v>2121.331753211505</v>
+        <v>2121.331753211504</v>
       </c>
       <c r="T31" t="n">
-        <v>1947.425885370585</v>
+        <v>1947.425885370584</v>
       </c>
       <c r="U31" t="n">
-        <v>1706.226106794995</v>
+        <v>1706.226106794994</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.445254397046</v>
+        <v>1499.445254397045</v>
       </c>
       <c r="W31" t="n">
-        <v>1257.931720168023</v>
+        <v>1257.931720168022</v>
       </c>
       <c r="X31" t="n">
-        <v>1077.845805077943</v>
+        <v>1077.845805077942</v>
       </c>
       <c r="Y31" t="n">
-        <v>904.9568617423507</v>
+        <v>904.9568617423496</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1061.217373924317</v>
       </c>
       <c r="F32" t="n">
-        <v>698.1351049426476</v>
+        <v>698.1351049426471</v>
       </c>
       <c r="G32" t="n">
-        <v>330.9439133363366</v>
+        <v>330.9439133363367</v>
       </c>
       <c r="H32" t="n">
         <v>81.03477764680153</v>
@@ -6704,25 +6704,25 @@
         <v>599.082008790832</v>
       </c>
       <c r="L32" t="n">
-        <v>1351.764087956449</v>
+        <v>1046.655195557812</v>
       </c>
       <c r="M32" t="n">
-        <v>1881.444933799375</v>
+        <v>2021.354439558641</v>
       </c>
       <c r="N32" t="n">
-        <v>2857.283833039011</v>
+        <v>2564.219883630414</v>
       </c>
       <c r="O32" t="n">
-        <v>3356.561016776908</v>
+        <v>3356.561016776907</v>
       </c>
       <c r="P32" t="n">
-        <v>3748.181541052356</v>
+        <v>3748.181541052355</v>
       </c>
       <c r="Q32" t="n">
         <v>3994.099498749635</v>
       </c>
       <c r="R32" t="n">
-        <v>4051.738882340077</v>
+        <v>4051.738882340076</v>
       </c>
       <c r="S32" t="n">
         <v>3988.84192788007</v>
@@ -6734,7 +6734,7 @@
         <v>3625.04122852092</v>
       </c>
       <c r="V32" t="n">
-        <v>3341.881976985288</v>
+        <v>3341.881976985287</v>
       </c>
       <c r="W32" t="n">
         <v>3037.016957523111</v>
@@ -6847,28 +6847,28 @@
         <v>348.9707125312531</v>
       </c>
       <c r="G34" t="n">
-        <v>229.1614740457773</v>
+        <v>229.1614740457771</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7586790767218</v>
+        <v>130.7586790767216</v>
       </c>
       <c r="I34" t="n">
         <v>81.03477764680153</v>
       </c>
       <c r="J34" t="n">
-        <v>172.4122227085533</v>
+        <v>172.4122227085536</v>
       </c>
       <c r="K34" t="n">
-        <v>422.2067718500732</v>
+        <v>422.2067718500737</v>
       </c>
       <c r="L34" t="n">
-        <v>784.254293574394</v>
+        <v>784.2542935743944</v>
       </c>
       <c r="M34" t="n">
         <v>1173.819554180867</v>
       </c>
       <c r="N34" t="n">
-        <v>1560.67281449911</v>
+        <v>1560.672814499111</v>
       </c>
       <c r="O34" t="n">
         <v>1905.562221807535</v>
@@ -6880,22 +6880,22 @@
         <v>2307.667082251216</v>
       </c>
       <c r="R34" t="n">
-        <v>2265.288930756832</v>
+        <v>2265.288930756833</v>
       </c>
       <c r="S34" t="n">
         <v>2121.331753211505</v>
       </c>
       <c r="T34" t="n">
-        <v>1947.425885370584</v>
+        <v>1947.425885370585</v>
       </c>
       <c r="U34" t="n">
         <v>1706.226106794995</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.445254397045</v>
+        <v>1499.445254397046</v>
       </c>
       <c r="W34" t="n">
-        <v>1257.931720168022</v>
+        <v>1257.931720168023</v>
       </c>
       <c r="X34" t="n">
         <v>1077.845805077943</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2030.52293464591</v>
+        <v>2030.522934645911</v>
       </c>
       <c r="C35" t="n">
         <v>1709.464053513437</v>
@@ -6923,52 +6923,52 @@
         <v>1061.217373924318</v>
       </c>
       <c r="F35" t="n">
-        <v>698.135104942648</v>
+        <v>698.1351049426476</v>
       </c>
       <c r="G35" t="n">
         <v>330.9439133363366</v>
       </c>
       <c r="H35" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="I35" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J35" t="n">
-        <v>362.9695132582838</v>
+        <v>268.0524616129516</v>
       </c>
       <c r="K35" t="n">
-        <v>693.9990604361642</v>
+        <v>599.082008790832</v>
       </c>
       <c r="L35" t="n">
-        <v>1141.572247203144</v>
+        <v>1046.655195557812</v>
       </c>
       <c r="M35" t="n">
-        <v>1671.253093046069</v>
+        <v>1576.336041400737</v>
       </c>
       <c r="N35" t="n">
-        <v>2647.091992285706</v>
+        <v>2552.174940640374</v>
       </c>
       <c r="O35" t="n">
-        <v>3146.369176023602</v>
+        <v>3356.561016776907</v>
       </c>
       <c r="P35" t="n">
-        <v>3537.989700299051</v>
+        <v>3748.181541052355</v>
       </c>
       <c r="Q35" t="n">
-        <v>3994.099498749636</v>
+        <v>3994.099498749635</v>
       </c>
       <c r="R35" t="n">
-        <v>4051.738882340077</v>
+        <v>4051.738882340076</v>
       </c>
       <c r="S35" t="n">
-        <v>3988.841927880071</v>
+        <v>3988.84192788007</v>
       </c>
       <c r="T35" t="n">
-        <v>3830.669859619887</v>
+        <v>3830.669859619886</v>
       </c>
       <c r="U35" t="n">
-        <v>3625.041228520921</v>
+        <v>3625.04122852092</v>
       </c>
       <c r="V35" t="n">
         <v>3341.881976985288</v>
@@ -7008,10 +7008,10 @@
         <v>180.8437935640128</v>
       </c>
       <c r="H36" t="n">
-        <v>90.22626629802993</v>
+        <v>90.22626629802991</v>
       </c>
       <c r="I36" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J36" t="n">
         <v>173.6033820606508</v>
@@ -7020,7 +7020,7 @@
         <v>409.9726958392259</v>
       </c>
       <c r="L36" t="n">
-        <v>774.1229491547508</v>
+        <v>782.6692436778679</v>
       </c>
       <c r="M36" t="n">
         <v>1226.97228161153</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>771.2120327200485</v>
+        <v>771.212032720048</v>
       </c>
       <c r="C37" t="n">
-        <v>650.1794856000793</v>
+        <v>650.1794856000788</v>
       </c>
       <c r="D37" t="n">
-        <v>547.9664819956812</v>
+        <v>547.9664819956807</v>
       </c>
       <c r="E37" t="n">
-        <v>447.9570242212257</v>
+        <v>447.9570242212253</v>
       </c>
       <c r="F37" t="n">
-        <v>348.970712531253</v>
+        <v>348.9707125312526</v>
       </c>
       <c r="G37" t="n">
-        <v>229.1614740457771</v>
+        <v>229.1614740457767</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7586790767218</v>
+        <v>130.7586790767214</v>
       </c>
       <c r="I37" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J37" t="n">
-        <v>172.4122227085535</v>
+        <v>172.4122227085538</v>
       </c>
       <c r="K37" t="n">
-        <v>422.2067718500739</v>
+        <v>422.2067718500738</v>
       </c>
       <c r="L37" t="n">
-        <v>784.2542935743942</v>
+        <v>784.2542935743945</v>
       </c>
       <c r="M37" t="n">
         <v>1173.819554180867</v>
@@ -7123,10 +7123,10 @@
         <v>2121.331753211505</v>
       </c>
       <c r="T37" t="n">
-        <v>1947.425885370585</v>
+        <v>1947.425885370584</v>
       </c>
       <c r="U37" t="n">
-        <v>1706.226106794995</v>
+        <v>1706.226106794994</v>
       </c>
       <c r="V37" t="n">
         <v>1499.445254397045</v>
@@ -7135,10 +7135,10 @@
         <v>1257.931720168022</v>
       </c>
       <c r="X37" t="n">
-        <v>1077.845805077943</v>
+        <v>1077.845805077942</v>
       </c>
       <c r="Y37" t="n">
-        <v>904.9568617423505</v>
+        <v>904.95686174235</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2030.52293464591</v>
+        <v>2030.522934645911</v>
       </c>
       <c r="C38" t="n">
         <v>1709.464053513437</v>
@@ -7157,13 +7157,13 @@
         <v>1399.101990714624</v>
       </c>
       <c r="E38" t="n">
-        <v>1061.217373924318</v>
+        <v>1061.217373924317</v>
       </c>
       <c r="F38" t="n">
         <v>698.1351049426476</v>
       </c>
       <c r="G38" t="n">
-        <v>330.9439133363365</v>
+        <v>330.9439133363366</v>
       </c>
       <c r="H38" t="n">
         <v>81.03477764680153</v>
@@ -7172,28 +7172,28 @@
         <v>81.03477764680153</v>
       </c>
       <c r="J38" t="n">
-        <v>268.0524616129516</v>
+        <v>435.4581106333046</v>
       </c>
       <c r="K38" t="n">
-        <v>599.082008790832</v>
+        <v>766.487657811185</v>
       </c>
       <c r="L38" t="n">
-        <v>1046.655195557812</v>
+        <v>1214.060844578165</v>
       </c>
       <c r="M38" t="n">
-        <v>2021.354439558641</v>
+        <v>1743.74169042109</v>
       </c>
       <c r="N38" t="n">
-        <v>2564.219883630414</v>
+        <v>2719.580589660727</v>
       </c>
       <c r="O38" t="n">
-        <v>3063.49706736831</v>
+        <v>3218.857773398624</v>
       </c>
       <c r="P38" t="n">
-        <v>3748.181541052355</v>
+        <v>3683.122285378103</v>
       </c>
       <c r="Q38" t="n">
-        <v>3994.099498749635</v>
+        <v>3929.040243075382</v>
       </c>
       <c r="R38" t="n">
         <v>4051.738882340076</v>
@@ -7257,19 +7257,19 @@
         <v>409.9726958392259</v>
       </c>
       <c r="L39" t="n">
-        <v>782.6692436778679</v>
+        <v>774.1229491547508</v>
       </c>
       <c r="M39" t="n">
-        <v>1226.97228161153</v>
+        <v>1218.425987088413</v>
       </c>
       <c r="N39" t="n">
-        <v>1697.443343810093</v>
+        <v>1688.897049286976</v>
       </c>
       <c r="O39" t="n">
-        <v>2105.612656540462</v>
+        <v>2097.066362017345</v>
       </c>
       <c r="P39" t="n">
-        <v>2413.871448605566</v>
+        <v>2405.325154082449</v>
       </c>
       <c r="Q39" t="n">
         <v>2570.015091188136</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>771.2120327200487</v>
+        <v>771.2120327200486</v>
       </c>
       <c r="C40" t="n">
-        <v>650.1794856000795</v>
+        <v>650.1794856000794</v>
       </c>
       <c r="D40" t="n">
-        <v>547.9664819956814</v>
+        <v>547.9664819956813</v>
       </c>
       <c r="E40" t="n">
-        <v>447.957024221226</v>
+        <v>447.9570242212259</v>
       </c>
       <c r="F40" t="n">
-        <v>348.9707125312534</v>
+        <v>348.9707125312532</v>
       </c>
       <c r="G40" t="n">
-        <v>229.1614740457776</v>
+        <v>229.1614740457773</v>
       </c>
       <c r="H40" t="n">
         <v>130.7586790767218</v>
@@ -7330,13 +7330,13 @@
         <v>81.03477764680153</v>
       </c>
       <c r="J40" t="n">
-        <v>172.4122227085536</v>
+        <v>172.4122227085535</v>
       </c>
       <c r="K40" t="n">
-        <v>422.2067718500737</v>
+        <v>422.2067718500736</v>
       </c>
       <c r="L40" t="n">
-        <v>784.2542935743944</v>
+        <v>784.2542935743943</v>
       </c>
       <c r="M40" t="n">
         <v>1173.819554180867</v>
@@ -7354,13 +7354,13 @@
         <v>2307.667082251216</v>
       </c>
       <c r="R40" t="n">
-        <v>2265.288930756832</v>
+        <v>2265.288930756833</v>
       </c>
       <c r="S40" t="n">
         <v>2121.331753211505</v>
       </c>
       <c r="T40" t="n">
-        <v>1947.425885370585</v>
+        <v>1947.425885370584</v>
       </c>
       <c r="U40" t="n">
         <v>1706.226106794995</v>
@@ -7391,67 +7391,67 @@
         <v>1709.464053513437</v>
       </c>
       <c r="D41" t="n">
-        <v>1399.101990714625</v>
+        <v>1399.101990714624</v>
       </c>
       <c r="E41" t="n">
-        <v>1061.217373924318</v>
+        <v>1061.217373924317</v>
       </c>
       <c r="F41" t="n">
-        <v>698.1351049426482</v>
+        <v>698.1351049426476</v>
       </c>
       <c r="G41" t="n">
         <v>330.9439133363366</v>
       </c>
       <c r="H41" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="I41" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J41" t="n">
         <v>268.0524616129516</v>
       </c>
       <c r="K41" t="n">
-        <v>858.6204982781362</v>
+        <v>599.082008790832</v>
       </c>
       <c r="L41" t="n">
-        <v>1719.678287450062</v>
+        <v>1046.655195557812</v>
       </c>
       <c r="M41" t="n">
-        <v>2249.359133292987</v>
+        <v>2021.354439558641</v>
       </c>
       <c r="N41" t="n">
-        <v>2792.22457736476</v>
+        <v>2564.219883630414</v>
       </c>
       <c r="O41" t="n">
-        <v>3291.501761102656</v>
+        <v>3356.561016776907</v>
       </c>
       <c r="P41" t="n">
-        <v>3683.122285378104</v>
+        <v>3748.181541052355</v>
       </c>
       <c r="Q41" t="n">
-        <v>3929.040243075383</v>
+        <v>3994.099498749635</v>
       </c>
       <c r="R41" t="n">
-        <v>4051.738882340077</v>
+        <v>4051.738882340076</v>
       </c>
       <c r="S41" t="n">
-        <v>3988.841927880071</v>
+        <v>3988.84192788007</v>
       </c>
       <c r="T41" t="n">
-        <v>3830.669859619887</v>
+        <v>3830.669859619886</v>
       </c>
       <c r="U41" t="n">
-        <v>3625.041228520921</v>
+        <v>3625.04122852092</v>
       </c>
       <c r="V41" t="n">
         <v>3341.881976985288</v>
       </c>
       <c r="W41" t="n">
-        <v>3037.016957523112</v>
+        <v>3037.016957523111</v>
       </c>
       <c r="X41" t="n">
-        <v>2711.45483506997</v>
+        <v>2711.454835069969</v>
       </c>
       <c r="Y41" t="n">
         <v>2369.219138902095</v>
@@ -7482,10 +7482,10 @@
         <v>180.8437935640128</v>
       </c>
       <c r="H42" t="n">
-        <v>90.22626629802993</v>
+        <v>90.22626629802991</v>
       </c>
       <c r="I42" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J42" t="n">
         <v>173.6033820606508</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>771.2120327200485</v>
+        <v>771.2120327200486</v>
       </c>
       <c r="C43" t="n">
-        <v>650.1794856000793</v>
+        <v>650.1794856000794</v>
       </c>
       <c r="D43" t="n">
-        <v>547.9664819956812</v>
+        <v>547.9664819956813</v>
       </c>
       <c r="E43" t="n">
-        <v>447.9570242212257</v>
+        <v>447.9570242212259</v>
       </c>
       <c r="F43" t="n">
-        <v>348.970712531253</v>
+        <v>348.9707125312532</v>
       </c>
       <c r="G43" t="n">
-        <v>229.1614740457771</v>
+        <v>229.1614740457773</v>
       </c>
       <c r="H43" t="n">
         <v>130.7586790767218</v>
       </c>
       <c r="I43" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J43" t="n">
         <v>172.4122227085535</v>
       </c>
       <c r="K43" t="n">
-        <v>422.2067718500733</v>
+        <v>422.2067718500736</v>
       </c>
       <c r="L43" t="n">
-        <v>784.2542935743941</v>
+        <v>784.2542935743944</v>
       </c>
       <c r="M43" t="n">
         <v>1173.819554180867</v>
@@ -7591,7 +7591,7 @@
         <v>2307.667082251216</v>
       </c>
       <c r="R43" t="n">
-        <v>2265.288930756832</v>
+        <v>2265.288930756833</v>
       </c>
       <c r="S43" t="n">
         <v>2121.331753211505</v>
@@ -7603,16 +7603,16 @@
         <v>1706.226106794995</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.445254397045</v>
+        <v>1499.445254397046</v>
       </c>
       <c r="W43" t="n">
-        <v>1257.931720168022</v>
+        <v>1257.931720168023</v>
       </c>
       <c r="X43" t="n">
         <v>1077.845805077943</v>
       </c>
       <c r="Y43" t="n">
-        <v>904.9568617423505</v>
+        <v>904.9568617423506</v>
       </c>
     </row>
     <row r="44">
@@ -7625,58 +7625,58 @@
         <v>2030.52293464591</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.464053513437</v>
+        <v>1709.464053513436</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.101990714624</v>
+        <v>1399.101990714623</v>
       </c>
       <c r="E44" t="n">
         <v>1061.217373924317</v>
       </c>
       <c r="F44" t="n">
-        <v>698.1351049426476</v>
+        <v>698.1351049426469</v>
       </c>
       <c r="G44" t="n">
         <v>330.9439133363366</v>
       </c>
       <c r="H44" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="I44" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J44" t="n">
-        <v>435.4581106333046</v>
+        <v>268.0524616129516</v>
       </c>
       <c r="K44" t="n">
-        <v>766.487657811185</v>
+        <v>599.082008790832</v>
       </c>
       <c r="L44" t="n">
-        <v>1627.545446983111</v>
+        <v>1046.655195557812</v>
       </c>
       <c r="M44" t="n">
-        <v>2314.418388967239</v>
+        <v>1995.837667877471</v>
       </c>
       <c r="N44" t="n">
-        <v>2857.283833039012</v>
+        <v>2538.703111949243</v>
       </c>
       <c r="O44" t="n">
-        <v>3356.561016776908</v>
+        <v>3037.980295687139</v>
       </c>
       <c r="P44" t="n">
-        <v>3748.181541052356</v>
+        <v>3748.181541052355</v>
       </c>
       <c r="Q44" t="n">
-        <v>3994.099498749636</v>
+        <v>3994.099498749635</v>
       </c>
       <c r="R44" t="n">
-        <v>4051.738882340077</v>
+        <v>4051.738882340076</v>
       </c>
       <c r="S44" t="n">
-        <v>3988.841927880071</v>
+        <v>3988.84192788007</v>
       </c>
       <c r="T44" t="n">
-        <v>3830.669859619887</v>
+        <v>3830.669859619886</v>
       </c>
       <c r="U44" t="n">
         <v>3625.04122852092</v>
@@ -7719,10 +7719,10 @@
         <v>180.8437935640128</v>
       </c>
       <c r="H45" t="n">
-        <v>90.22626629802993</v>
+        <v>90.22626629802991</v>
       </c>
       <c r="I45" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J45" t="n">
         <v>173.6033820606508</v>
@@ -7731,19 +7731,19 @@
         <v>409.9726958392259</v>
       </c>
       <c r="L45" t="n">
-        <v>774.1229491547508</v>
+        <v>782.6692436778679</v>
       </c>
       <c r="M45" t="n">
-        <v>1218.425987088413</v>
+        <v>1226.97228161153</v>
       </c>
       <c r="N45" t="n">
-        <v>1688.897049286976</v>
+        <v>1697.443343810093</v>
       </c>
       <c r="O45" t="n">
-        <v>2097.066362017345</v>
+        <v>2105.612656540462</v>
       </c>
       <c r="P45" t="n">
-        <v>2405.325154082449</v>
+        <v>2413.871448605566</v>
       </c>
       <c r="Q45" t="n">
         <v>2570.015091188136</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>771.2120327200481</v>
+        <v>771.2120327200486</v>
       </c>
       <c r="C46" t="n">
-        <v>650.1794856000789</v>
+        <v>650.1794856000794</v>
       </c>
       <c r="D46" t="n">
-        <v>547.9664819956809</v>
+        <v>547.9664819956813</v>
       </c>
       <c r="E46" t="n">
-        <v>447.9570242212254</v>
+        <v>447.9570242212259</v>
       </c>
       <c r="F46" t="n">
-        <v>348.9707125312528</v>
+        <v>348.9707125312532</v>
       </c>
       <c r="G46" t="n">
-        <v>229.1614740457769</v>
+        <v>229.1614740457773</v>
       </c>
       <c r="H46" t="n">
         <v>130.7586790767218</v>
       </c>
       <c r="I46" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J46" t="n">
         <v>172.4122227085535</v>
@@ -7819,37 +7819,37 @@
         <v>1560.67281449911</v>
       </c>
       <c r="O46" t="n">
-        <v>1905.562221807534</v>
+        <v>1905.562221807535</v>
       </c>
       <c r="P46" t="n">
         <v>2183.930224167354</v>
       </c>
       <c r="Q46" t="n">
-        <v>2307.667082251215</v>
+        <v>2307.667082251216</v>
       </c>
       <c r="R46" t="n">
-        <v>2265.288930756831</v>
+        <v>2265.288930756833</v>
       </c>
       <c r="S46" t="n">
-        <v>2121.331753211504</v>
+        <v>2121.331753211505</v>
       </c>
       <c r="T46" t="n">
         <v>1947.425885370584</v>
       </c>
       <c r="U46" t="n">
-        <v>1706.226106794994</v>
+        <v>1706.226106794995</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.445254397045</v>
+        <v>1499.445254397046</v>
       </c>
       <c r="W46" t="n">
-        <v>1257.931720168022</v>
+        <v>1257.931720168023</v>
       </c>
       <c r="X46" t="n">
-        <v>1077.845805077942</v>
+        <v>1077.845805077943</v>
       </c>
       <c r="Y46" t="n">
-        <v>904.9568617423502</v>
+        <v>904.9568617423506</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>8.632620730421394</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>8.632620730421309</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8930,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>215.5701906526865</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>185.424104146696</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>8.632620730421479</v>
       </c>
       <c r="P15" t="n">
-        <v>8.632620730421365</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0241913218152</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>126.9275761497413</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>8.632620730421365</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>8.632620730421309</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>143.3609017105964</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>158.7798950921233</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>8.632620730421365</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>8.63262073042128</v>
       </c>
       <c r="R21" t="n">
         <v>0.8788455650708329</v>
@@ -9641,25 +9641,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0241913218152</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>358.0225967701833</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>8.632620730421365</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>8.632620730421309</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>242.4743805296826</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>42.93883538042007</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>8.632620730421365</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.8788455650708329</v>
+        <v>9.511466295492058</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>421.3923122434832</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>230.3077714488343</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>8.632620730421309</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>8.632620730421252</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10352,16 +10352,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>308.1908004026641</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>296.0241913218155</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.87580974275983</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>308.1908004026639</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10668,10 +10668,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>8.632620730421365</v>
       </c>
       <c r="M36" t="n">
-        <v>8.632620730421309</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>296.0241913218153</v>
+        <v>73.37776535760764</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>8.632620730421365</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>8.63262073042128</v>
       </c>
       <c r="R39" t="n">
         <v>0.8788455650708329</v>
@@ -11060,19 +11060,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>262.1600903912164</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>296.0241913218155</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>158.7798950921245</v>
+        <v>423.7390166431652</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>8.632620730421365</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.63262073042128</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0.8788455650708329</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>345.0604568772829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9438791401057</v>
       </c>
       <c r="H11" t="n">
-        <v>294.834643782498</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>237.3266235018604</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>160.706141504671</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0357455504794</v>
       </c>
       <c r="H13" t="n">
         <v>144.8433664692232</v>
       </c>
       <c r="I13" t="n">
-        <v>96.6512618654794</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.9422052197322</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5914086123697</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.212380239692</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>193.3997681576855</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8346437824979</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>19.39114832079154</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>204.0149470274404</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>126.0370642091718</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0357455504794</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.8433664692232</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.65126186547937</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.37896942929819</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.9422052197322</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5914086123697</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.212380239692</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>282.6395329912864</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.99242872649881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.876544027065393e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1168142.128204816</v>
+        <v>1168142.128204815</v>
       </c>
     </row>
     <row r="7">
@@ -26332,7 +26332,7 @@
         <v>143682.3097262495</v>
       </c>
       <c r="I2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="J2" t="n">
         <v>143682.3097262495</v>
@@ -26341,7 +26341,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262495</v>
@@ -26375,10 +26375,10 @@
         <v>1117324.446093305</v>
       </c>
       <c r="F3" t="n">
-        <v>43640.72137366576</v>
+        <v>43640.72137366541</v>
       </c>
       <c r="G3" t="n">
-        <v>47800.2987061639</v>
+        <v>47800.29870616416</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37939.67955988663</v>
+        <v>37939.67955988662</v>
       </c>
       <c r="M3" t="n">
         <v>205505.6817252603</v>
       </c>
       <c r="N3" t="n">
-        <v>37304.78547806421</v>
+        <v>37304.7854780639</v>
       </c>
       <c r="O3" t="n">
-        <v>8657.780827738798</v>
+        <v>8657.78082773899</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>8816.954414008051</v>
       </c>
       <c r="F4" t="n">
-        <v>24490.7799957558</v>
+        <v>24490.77999575567</v>
       </c>
       <c r="G4" t="n">
         <v>75890.88432859778</v>
@@ -26436,28 +26436,28 @@
         <v>75890.88432859781</v>
       </c>
       <c r="I4" t="n">
+        <v>75890.88432859782</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75890.88432859776</v>
+      </c>
+      <c r="K4" t="n">
+        <v>75890.88432859775</v>
+      </c>
+      <c r="L4" t="n">
+        <v>75890.88432859779</v>
+      </c>
+      <c r="M4" t="n">
+        <v>75890.88432859779</v>
+      </c>
+      <c r="N4" t="n">
         <v>75890.88432859781</v>
       </c>
-      <c r="J4" t="n">
-        <v>75890.88432859782</v>
-      </c>
-      <c r="K4" t="n">
-        <v>75890.88432859784</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>75890.88432859781</v>
       </c>
-      <c r="M4" t="n">
-        <v>75890.88432859782</v>
-      </c>
-      <c r="N4" t="n">
-        <v>75890.88432859782</v>
-      </c>
-      <c r="O4" t="n">
-        <v>75890.88432859785</v>
-      </c>
       <c r="P4" t="n">
-        <v>75890.88432859784</v>
+        <v>75890.88432859781</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>73775.62242495251</v>
       </c>
       <c r="F5" t="n">
-        <v>83036.05903286549</v>
+        <v>83036.05903286544</v>
       </c>
       <c r="G5" t="n">
-        <v>89210.36891590961</v>
+        <v>89210.3689159096</v>
       </c>
       <c r="H5" t="n">
-        <v>89210.36891590961</v>
+        <v>89210.3689159096</v>
       </c>
       <c r="I5" t="n">
         <v>89210.36891590961</v>
       </c>
       <c r="J5" t="n">
-        <v>89210.36891590962</v>
+        <v>89210.36891590961</v>
       </c>
       <c r="K5" t="n">
-        <v>89210.36891590962</v>
+        <v>89210.36891590961</v>
       </c>
       <c r="L5" t="n">
         <v>89210.36891590961</v>
       </c>
       <c r="M5" t="n">
-        <v>89210.36891590962</v>
+        <v>89210.36891590961</v>
       </c>
       <c r="N5" t="n">
         <v>89210.36891590961</v>
       </c>
       <c r="O5" t="n">
-        <v>89210.36891590962</v>
+        <v>89210.36891590961</v>
       </c>
       <c r="P5" t="n">
-        <v>89210.36891590962</v>
+        <v>89210.36891590961</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-305026.6393374772</v>
+        <v>-305031.0529153453</v>
       </c>
       <c r="C6" t="n">
-        <v>-305026.6393374772</v>
+        <v>-305031.0529153454</v>
       </c>
       <c r="D6" t="n">
-        <v>-305026.6393374772</v>
+        <v>-305031.0529153453</v>
       </c>
       <c r="E6" t="n">
-        <v>-1081001.884320476</v>
+        <v>-1081355.701050683</v>
       </c>
       <c r="F6" t="n">
-        <v>-24018.62277298703</v>
+        <v>-24254.81380294291</v>
       </c>
       <c r="G6" t="n">
-        <v>-69219.24222442177</v>
+        <v>-69219.24222442205</v>
       </c>
       <c r="H6" t="n">
-        <v>-21418.94351825787</v>
+        <v>-21418.94351825786</v>
       </c>
       <c r="I6" t="n">
-        <v>-21418.94351825793</v>
+        <v>-21418.94351825786</v>
       </c>
       <c r="J6" t="n">
-        <v>-21418.9435182579</v>
+        <v>-21418.94351825783</v>
       </c>
       <c r="K6" t="n">
-        <v>-21418.94351825789</v>
+        <v>-21418.94351825779</v>
       </c>
       <c r="L6" t="n">
-        <v>-59358.6230781445</v>
+        <v>-59358.62307814445</v>
       </c>
       <c r="M6" t="n">
         <v>-226924.6252435182</v>
       </c>
       <c r="N6" t="n">
-        <v>-58723.72899632216</v>
+        <v>-58723.72899632184</v>
       </c>
       <c r="O6" t="n">
-        <v>-30076.72434599674</v>
+        <v>-30076.72434599692</v>
       </c>
       <c r="P6" t="n">
-        <v>-21418.94351825792</v>
+        <v>-21418.9435182579</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="G2" t="n">
         <v>47.42459944985828</v>
@@ -26704,28 +26704,28 @@
         <v>47.42459944985828</v>
       </c>
       <c r="I2" t="n">
+        <v>47.42459944985829</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47.42459944985826</v>
+      </c>
+      <c r="K2" t="n">
+        <v>47.42459944985826</v>
+      </c>
+      <c r="L2" t="n">
         <v>47.42459944985828</v>
-      </c>
-      <c r="J2" t="n">
-        <v>47.42459944985828</v>
-      </c>
-      <c r="K2" t="n">
-        <v>47.42459944985829</v>
-      </c>
-      <c r="L2" t="n">
-        <v>47.4245994498583</v>
       </c>
       <c r="M2" t="n">
         <v>47.42459944985829</v>
       </c>
       <c r="N2" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="O2" t="n">
         <v>47.42459944985829</v>
       </c>
       <c r="P2" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
     </row>
     <row r="3">
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>824.6484074302992</v>
+        <v>824.6484074302994</v>
       </c>
       <c r="F4" t="n">
-        <v>976.9582200604472</v>
+        <v>976.958220060446</v>
       </c>
       <c r="G4" t="n">
         <v>1012.934720585019</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985825</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985827</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>824.6484074302992</v>
+        <v>824.6484074302994</v>
       </c>
       <c r="F4" t="n">
-        <v>152.3098126301479</v>
+        <v>152.3098126301467</v>
       </c>
       <c r="G4" t="n">
-        <v>35.97650052457186</v>
+        <v>35.97650052457288</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27045,10 +27045,10 @@
         <v>824.6484074302994</v>
       </c>
       <c r="N4" t="n">
-        <v>152.3098126301477</v>
+        <v>152.3098126301466</v>
       </c>
       <c r="O4" t="n">
-        <v>35.97650052457209</v>
+        <v>35.97650052457288</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985825</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>824.6484074302992</v>
+        <v>824.6484074302994</v>
       </c>
       <c r="N4" t="n">
-        <v>152.3098126301479</v>
+        <v>152.3098126301467</v>
       </c>
       <c r="O4" t="n">
-        <v>35.97650052457186</v>
+        <v>35.97650052457288</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>47.42459944985828</v>
       </c>
       <c r="J19" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985858</v>
       </c>
       <c r="K19" t="n">
         <v>47.42459944985828</v>
@@ -28764,7 +28764,7 @@
         <v>47.42459944985828</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.42459944985866</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="R19" t="n">
         <v>47.42459944985828</v>
@@ -28992,13 +28992,13 @@
         <v>47.42459944985828</v>
       </c>
       <c r="N22" t="n">
-        <v>47.42459944985899</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="O22" t="n">
         <v>47.42459944985828</v>
       </c>
       <c r="P22" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985859</v>
       </c>
       <c r="Q22" t="n">
         <v>47.42459944985828</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="C23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="D23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="E23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="F23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="G23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="H23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="I23" t="n">
         <v>42.43100206708752</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="T23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="U23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="V23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="W23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="X23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="C25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="D25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="E25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="F25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="G25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="H25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="I25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="J25" t="n">
-        <v>47.42459944985903</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="K25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="L25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="M25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="N25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="O25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="P25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="R25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="S25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="T25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="U25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="V25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="W25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="X25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985829</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="I26" t="n">
         <v>42.43100206708752</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42459944985828</v>
+        <v>47.42459944985826</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="D29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="E29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="F29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="G29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="H29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="I29" t="n">
         <v>42.43100206708752</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="T29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="U29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="V29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="W29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="X29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="C31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="D31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="F31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="G31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="I31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="J31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="K31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="L31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="M31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="N31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="O31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="P31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="S31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="T31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="U31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="V31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="W31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985826</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="C32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="D32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="E32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="F32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="G32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="H32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="I32" t="n">
         <v>42.43100206708752</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="T32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="U32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="V32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="W32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="X32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="C34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="D34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="E34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="F34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="G34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="H34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="I34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="J34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="K34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="L34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="M34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="N34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="O34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="P34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="R34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="S34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="T34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="U34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="V34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="W34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="X34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985828</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="C38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="D38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="E38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="F38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="G38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="H38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="I38" t="n">
         <v>42.43100206708752</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="T38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="U38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="V38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="W38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="X38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="C40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="D40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="E40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="F40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="G40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="H40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="I40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="J40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="K40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="L40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="M40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="N40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="O40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="P40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985866</v>
       </c>
       <c r="R40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="S40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="T40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="U40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="V40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="W40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="X40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.42459944985833</v>
+        <v>47.42459944985829</v>
       </c>
     </row>
     <row r="41">
@@ -30645,7 +30645,7 @@
         <v>47.42459944985829</v>
       </c>
       <c r="L43" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985842</v>
       </c>
       <c r="M43" t="n">
         <v>47.42459944985829</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="C44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="D44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="E44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="F44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="G44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="H44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="I44" t="n">
         <v>42.43100206708752</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="T44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="U44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="V44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="W44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="X44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="C46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="D46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="E46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="F46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="G46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="H46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="I46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="J46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="K46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="L46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="M46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985842</v>
       </c>
       <c r="N46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="O46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="P46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="R46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="S46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="T46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="U46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="V46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="W46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="X46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985829</v>
       </c>
     </row>
   </sheetData>
@@ -35489,7 +35489,7 @@
         <v>93.50364082206994</v>
       </c>
       <c r="K12" t="n">
-        <v>247.3895033350427</v>
+        <v>238.7568826046214</v>
       </c>
       <c r="L12" t="n">
         <v>367.8285387025504</v>
@@ -35498,7 +35498,7 @@
         <v>448.7909474077395</v>
       </c>
       <c r="N12" t="n">
-        <v>475.2232951500631</v>
+        <v>483.8559158804844</v>
       </c>
       <c r="O12" t="n">
         <v>412.2922350811808</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.87585010746696</v>
+        <v>44.875850107467</v>
       </c>
       <c r="K13" t="n">
         <v>204.8931269557175</v>
@@ -35574,19 +35574,19 @@
         <v>318.2799679484455</v>
       </c>
       <c r="M13" t="n">
-        <v>346.0756637890029</v>
+        <v>346.075663789003</v>
       </c>
       <c r="N13" t="n">
         <v>343.3362695584682</v>
       </c>
       <c r="O13" t="n">
-        <v>300.9485392455204</v>
+        <v>300.9485392455205</v>
       </c>
       <c r="P13" t="n">
         <v>233.7552009135954</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.56212588737613</v>
+        <v>77.56212588737617</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>334.373279977657</v>
       </c>
       <c r="L14" t="n">
-        <v>452.0941280474543</v>
+        <v>869.7553425979047</v>
       </c>
       <c r="M14" t="n">
-        <v>750.6013480697831</v>
+        <v>535.0311574170966</v>
       </c>
       <c r="N14" t="n">
         <v>548.3489334058306</v>
@@ -35662,13 +35662,13 @@
         <v>504.3203876140367</v>
       </c>
       <c r="P14" t="n">
-        <v>717.3749953183999</v>
+        <v>395.5762871469173</v>
       </c>
       <c r="Q14" t="n">
-        <v>248.4019774719993</v>
+        <v>433.8260816186954</v>
       </c>
       <c r="R14" t="n">
-        <v>123.9380194592867</v>
+        <v>58.22159958630425</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>475.2232951500631</v>
       </c>
       <c r="O15" t="n">
-        <v>412.2922350811808</v>
+        <v>420.9248558116023</v>
       </c>
       <c r="P15" t="n">
-        <v>320.0051379679</v>
+        <v>311.3725172374786</v>
       </c>
       <c r="Q15" t="n">
         <v>157.7208510935055</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.87585010746696</v>
+        <v>44.875850107467</v>
       </c>
       <c r="K16" t="n">
         <v>204.8931269557175</v>
@@ -35811,7 +35811,7 @@
         <v>318.2799679484455</v>
       </c>
       <c r="M16" t="n">
-        <v>346.0756637890029</v>
+        <v>346.075663789003</v>
       </c>
       <c r="N16" t="n">
         <v>343.3362695584682</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>188.9067514809596</v>
+        <v>358.0033666530334</v>
       </c>
       <c r="K17" t="n">
         <v>334.373279977657</v>
       </c>
       <c r="L17" t="n">
-        <v>748.1183193692694</v>
+        <v>452.0941280474543</v>
       </c>
       <c r="M17" t="n">
         <v>984.544690909929</v>
@@ -35896,7 +35896,7 @@
         <v>548.3489334058306</v>
       </c>
       <c r="O17" t="n">
-        <v>504.3203876140367</v>
+        <v>631.247963763778</v>
       </c>
       <c r="P17" t="n">
         <v>395.5762871469173</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>102.1362615524913</v>
+        <v>93.50364082206994</v>
       </c>
       <c r="K18" t="n">
         <v>238.7568826046214</v>
@@ -35972,7 +35972,7 @@
         <v>448.7909474077395</v>
       </c>
       <c r="N18" t="n">
-        <v>475.2232951500631</v>
+        <v>483.8559158804844</v>
       </c>
       <c r="O18" t="n">
         <v>412.2922350811808</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.30044955732524</v>
+        <v>92.30044955732554</v>
       </c>
       <c r="K19" t="n">
         <v>252.3177264055757</v>
@@ -36057,10 +36057,10 @@
         <v>348.3731386953787</v>
       </c>
       <c r="P19" t="n">
-        <v>281.1798003634536</v>
+        <v>281.1798003634537</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.9867253372348</v>
+        <v>124.9867253372344</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>332.267653191556</v>
+        <v>358.0033666530334</v>
       </c>
       <c r="K20" t="n">
-        <v>658.5186925488217</v>
+        <v>334.373279977657</v>
       </c>
       <c r="L20" t="n">
-        <v>452.0941280474543</v>
+        <v>869.7553425979047</v>
       </c>
       <c r="M20" t="n">
         <v>535.0311574170966</v>
       </c>
       <c r="N20" t="n">
-        <v>548.3489334058306</v>
+        <v>707.1288284979539</v>
       </c>
       <c r="O20" t="n">
         <v>504.3203876140367</v>
@@ -36139,10 +36139,10 @@
         <v>395.5762871469173</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.716968131904</v>
+        <v>248.4019774719993</v>
       </c>
       <c r="R20" t="n">
-        <v>123.9380194592867</v>
+        <v>58.22159958630425</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>238.7568826046214</v>
       </c>
       <c r="L21" t="n">
-        <v>376.4611594329717</v>
+        <v>367.8285387025504</v>
       </c>
       <c r="M21" t="n">
         <v>448.7909474077395</v>
@@ -36218,7 +36218,7 @@
         <v>311.3725172374786</v>
       </c>
       <c r="Q21" t="n">
-        <v>157.7208510935055</v>
+        <v>166.3534718239268</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,13 +36288,13 @@
         <v>393.5002632388612</v>
       </c>
       <c r="N22" t="n">
-        <v>390.7608690083272</v>
+        <v>390.7608690083264</v>
       </c>
       <c r="O22" t="n">
         <v>348.3731386953787</v>
       </c>
       <c r="P22" t="n">
-        <v>281.1798003634536</v>
+        <v>281.179800363454</v>
       </c>
       <c r="Q22" t="n">
         <v>124.9867253372344</v>
@@ -36361,25 +36361,25 @@
         <v>334.373279977657</v>
       </c>
       <c r="L23" t="n">
-        <v>748.1183193692694</v>
+        <v>452.0941280474543</v>
       </c>
       <c r="M23" t="n">
-        <v>984.544690909929</v>
+        <v>535.0311574170966</v>
       </c>
       <c r="N23" t="n">
-        <v>548.3489334058306</v>
+        <v>906.3715301760139</v>
       </c>
       <c r="O23" t="n">
         <v>504.3203876140367</v>
       </c>
       <c r="P23" t="n">
-        <v>395.5762871469173</v>
+        <v>717.3749953183999</v>
       </c>
       <c r="Q23" t="n">
         <v>248.4019774719993</v>
       </c>
       <c r="R23" t="n">
-        <v>58.22159958630425</v>
+        <v>123.9380194592867</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>93.50364082206994</v>
       </c>
       <c r="K24" t="n">
-        <v>247.3895033350427</v>
+        <v>238.7568826046214</v>
       </c>
       <c r="L24" t="n">
         <v>367.8285387025504</v>
@@ -36446,7 +36446,7 @@
         <v>448.7909474077395</v>
       </c>
       <c r="N24" t="n">
-        <v>475.2232951500631</v>
+        <v>483.8559158804844</v>
       </c>
       <c r="O24" t="n">
         <v>412.2922350811808</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.30044955732599</v>
+        <v>92.30044955732525</v>
       </c>
       <c r="K25" t="n">
         <v>252.3177264055757</v>
@@ -36531,7 +36531,7 @@
         <v>348.3731386953787</v>
       </c>
       <c r="P25" t="n">
-        <v>281.1798003634536</v>
+        <v>281.1798003634537</v>
       </c>
       <c r="Q25" t="n">
         <v>124.9867253372344</v>
@@ -36595,7 +36595,7 @@
         <v>188.9067514809596</v>
       </c>
       <c r="K26" t="n">
-        <v>576.8476605073396</v>
+        <v>334.373279977657</v>
       </c>
       <c r="L26" t="n">
         <v>452.0941280474543</v>
@@ -36604,19 +36604,19 @@
         <v>535.0311574170966</v>
       </c>
       <c r="N26" t="n">
-        <v>985.6958578178147</v>
+        <v>591.2877687862507</v>
       </c>
       <c r="O26" t="n">
-        <v>504.3203876140367</v>
+        <v>885.120568876782</v>
       </c>
       <c r="P26" t="n">
-        <v>395.5762871469173</v>
+        <v>717.3749953183999</v>
       </c>
       <c r="Q26" t="n">
         <v>248.4019774719993</v>
       </c>
       <c r="R26" t="n">
-        <v>123.9380194592867</v>
+        <v>58.22159958630425</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>238.7568826046214</v>
       </c>
       <c r="L27" t="n">
-        <v>376.4611594329717</v>
+        <v>367.8285387025504</v>
       </c>
       <c r="M27" t="n">
         <v>448.7909474077395</v>
@@ -36695,7 +36695,7 @@
         <v>157.7208510935055</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>8.632620730421225</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.30044955732524</v>
+        <v>92.30044955732521</v>
       </c>
       <c r="K28" t="n">
         <v>252.3177264055757</v>
@@ -36768,7 +36768,7 @@
         <v>348.3731386953787</v>
       </c>
       <c r="P28" t="n">
-        <v>281.1798003634537</v>
+        <v>281.1798003634536</v>
       </c>
       <c r="Q28" t="n">
         <v>124.9867253372344</v>
@@ -36832,19 +36832,19 @@
         <v>188.9067514809596</v>
       </c>
       <c r="K29" t="n">
-        <v>334.373279977657</v>
+        <v>658.5186925488217</v>
       </c>
       <c r="L29" t="n">
         <v>452.0941280474543</v>
       </c>
       <c r="M29" t="n">
-        <v>984.544690909929</v>
+        <v>956.4234696605797</v>
       </c>
       <c r="N29" t="n">
         <v>548.3489334058306</v>
       </c>
       <c r="O29" t="n">
-        <v>734.628159062871</v>
+        <v>504.3203876140367</v>
       </c>
       <c r="P29" t="n">
         <v>395.5762871469173</v>
@@ -36853,7 +36853,7 @@
         <v>248.4019774719993</v>
       </c>
       <c r="R29" t="n">
-        <v>123.9380194592867</v>
+        <v>58.22159958630425</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>448.7909474077395</v>
       </c>
       <c r="N30" t="n">
-        <v>483.8559158804844</v>
+        <v>475.2232951500631</v>
       </c>
       <c r="O30" t="n">
-        <v>412.2922350811808</v>
+        <v>420.9248558116021</v>
       </c>
       <c r="P30" t="n">
         <v>311.3725172374786</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.30044955732525</v>
+        <v>92.30044955732521</v>
       </c>
       <c r="K31" t="n">
         <v>252.3177264055757</v>
       </c>
       <c r="L31" t="n">
-        <v>365.7045673983038</v>
+        <v>365.7045673983037</v>
       </c>
       <c r="M31" t="n">
         <v>393.5002632388612</v>
@@ -37005,7 +37005,7 @@
         <v>348.3731386953787</v>
       </c>
       <c r="P31" t="n">
-        <v>281.1798003634537</v>
+        <v>281.1798003634536</v>
       </c>
       <c r="Q31" t="n">
         <v>124.9867253372344</v>
@@ -37072,16 +37072,16 @@
         <v>334.373279977657</v>
       </c>
       <c r="L32" t="n">
-        <v>760.2849284501184</v>
+        <v>452.0941280474543</v>
       </c>
       <c r="M32" t="n">
-        <v>535.0311574170966</v>
+        <v>984.544690909929</v>
       </c>
       <c r="N32" t="n">
-        <v>985.6958578178147</v>
+        <v>548.3489334058306</v>
       </c>
       <c r="O32" t="n">
-        <v>504.3203876140367</v>
+        <v>800.3445789358522</v>
       </c>
       <c r="P32" t="n">
         <v>395.5762871469173</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.30044955732527</v>
+        <v>92.30044955732524</v>
       </c>
       <c r="K34" t="n">
-        <v>252.3177264055758</v>
+        <v>252.3177264055757</v>
       </c>
       <c r="L34" t="n">
         <v>365.7045673983038</v>
@@ -37242,7 +37242,7 @@
         <v>348.3731386953787</v>
       </c>
       <c r="P34" t="n">
-        <v>281.1798003634537</v>
+        <v>281.1798003634536</v>
       </c>
       <c r="Q34" t="n">
         <v>124.9867253372344</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>284.7825612237194</v>
+        <v>188.9067514809596</v>
       </c>
       <c r="K35" t="n">
         <v>334.373279977657</v>
@@ -37318,13 +37318,13 @@
         <v>985.6958578178147</v>
       </c>
       <c r="O35" t="n">
-        <v>504.3203876140367</v>
+        <v>812.5111880167005</v>
       </c>
       <c r="P35" t="n">
         <v>395.5762871469173</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.716968131904</v>
+        <v>248.4019774719993</v>
       </c>
       <c r="R35" t="n">
         <v>58.22159958630425</v>
@@ -37388,10 +37388,10 @@
         <v>238.7568826046214</v>
       </c>
       <c r="L36" t="n">
-        <v>367.8285387025504</v>
+        <v>376.4611594329717</v>
       </c>
       <c r="M36" t="n">
-        <v>457.4235681381608</v>
+        <v>448.7909474077395</v>
       </c>
       <c r="N36" t="n">
         <v>475.2232951500631</v>
@@ -37473,7 +37473,7 @@
         <v>393.5002632388612</v>
       </c>
       <c r="N37" t="n">
-        <v>390.7608690083265</v>
+        <v>390.7608690083264</v>
       </c>
       <c r="O37" t="n">
         <v>348.3731386953787</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>188.9067514809596</v>
+        <v>358.0033666530334</v>
       </c>
       <c r="K38" t="n">
         <v>334.373279977657</v>
@@ -37549,22 +37549,22 @@
         <v>452.0941280474543</v>
       </c>
       <c r="M38" t="n">
-        <v>984.544690909929</v>
+        <v>535.0311574170966</v>
       </c>
       <c r="N38" t="n">
-        <v>548.3489334058306</v>
+        <v>985.6958578178147</v>
       </c>
       <c r="O38" t="n">
         <v>504.3203876140367</v>
       </c>
       <c r="P38" t="n">
-        <v>691.6004784687326</v>
+        <v>468.954052504525</v>
       </c>
       <c r="Q38" t="n">
         <v>248.4019774719993</v>
       </c>
       <c r="R38" t="n">
-        <v>58.22159958630425</v>
+        <v>123.9380194592867</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>238.7568826046214</v>
       </c>
       <c r="L39" t="n">
-        <v>376.4611594329717</v>
+        <v>367.8285387025504</v>
       </c>
       <c r="M39" t="n">
         <v>448.7909474077395</v>
@@ -37640,7 +37640,7 @@
         <v>311.3725172374786</v>
       </c>
       <c r="Q39" t="n">
-        <v>157.7208510935055</v>
+        <v>166.3534718239268</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.30044955732529</v>
+        <v>92.30044955732525</v>
       </c>
       <c r="K40" t="n">
-        <v>252.3177264055758</v>
+        <v>252.3177264055757</v>
       </c>
       <c r="L40" t="n">
         <v>365.7045673983038</v>
@@ -37710,7 +37710,7 @@
         <v>393.5002632388612</v>
       </c>
       <c r="N40" t="n">
-        <v>390.7608690083265</v>
+        <v>390.7608690083264</v>
       </c>
       <c r="O40" t="n">
         <v>348.3731386953787</v>
@@ -37719,7 +37719,7 @@
         <v>281.1798003634537</v>
       </c>
       <c r="Q40" t="n">
-        <v>124.9867253372344</v>
+        <v>124.9867253372348</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>188.9067514809596</v>
       </c>
       <c r="K41" t="n">
-        <v>596.5333703688734</v>
+        <v>334.373279977657</v>
       </c>
       <c r="L41" t="n">
-        <v>869.7553425979047</v>
+        <v>452.0941280474543</v>
       </c>
       <c r="M41" t="n">
-        <v>535.0311574170966</v>
+        <v>984.544690909929</v>
       </c>
       <c r="N41" t="n">
         <v>548.3489334058306</v>
       </c>
       <c r="O41" t="n">
-        <v>504.3203876140367</v>
+        <v>800.3445789358522</v>
       </c>
       <c r="P41" t="n">
         <v>395.5762871469173</v>
@@ -37801,7 +37801,7 @@
         <v>248.4019774719993</v>
       </c>
       <c r="R41" t="n">
-        <v>123.9380194592867</v>
+        <v>58.22159958630425</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>252.3177264055757</v>
       </c>
       <c r="L43" t="n">
-        <v>365.7045673983038</v>
+        <v>365.7045673983039</v>
       </c>
       <c r="M43" t="n">
         <v>393.5002632388612</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>358.0033666530334</v>
+        <v>188.9067514809596</v>
       </c>
       <c r="K44" t="n">
         <v>334.373279977657</v>
       </c>
       <c r="L44" t="n">
-        <v>869.7553425979047</v>
+        <v>452.0941280474543</v>
       </c>
       <c r="M44" t="n">
-        <v>693.8110525092211</v>
+        <v>958.7701740602618</v>
       </c>
       <c r="N44" t="n">
         <v>548.3489334058306</v>
@@ -38032,7 +38032,7 @@
         <v>504.3203876140367</v>
       </c>
       <c r="P44" t="n">
-        <v>395.5762871469173</v>
+        <v>717.3749953183999</v>
       </c>
       <c r="Q44" t="n">
         <v>248.4019774719993</v>
@@ -38099,7 +38099,7 @@
         <v>238.7568826046214</v>
       </c>
       <c r="L45" t="n">
-        <v>367.8285387025504</v>
+        <v>376.4611594329717</v>
       </c>
       <c r="M45" t="n">
         <v>448.7909474077395</v>
@@ -38114,7 +38114,7 @@
         <v>311.3725172374786</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.3534718239268</v>
+        <v>157.7208510935055</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.30044955732527</v>
+        <v>92.30044955732525</v>
       </c>
       <c r="K46" t="n">
-        <v>252.3177264055758</v>
+        <v>252.3177264055757</v>
       </c>
       <c r="L46" t="n">
         <v>365.7045673983038</v>
       </c>
       <c r="M46" t="n">
-        <v>393.5002632388612</v>
+        <v>393.5002632388614</v>
       </c>
       <c r="N46" t="n">
-        <v>390.7608690083265</v>
+        <v>390.7608690083264</v>
       </c>
       <c r="O46" t="n">
         <v>348.3731386953787</v>
